--- a/images/stundenplaene/Stundenpläne_aktuell.xlsx
+++ b/images/stundenplaene/Stundenpläne_aktuell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wetzikon" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Montag</t>
   </si>
@@ -166,6 +166,14 @@
   <si>
     <t>Taiji / Qi Gong 
 (ab20:30)</t>
+  </si>
+  <si>
+    <t>Taiji Chuan &amp; Qi Gong 
+(Anfänger)</t>
+  </si>
+  <si>
+    <t>Taiji Chuan &amp; Qi Gong 
+(Fortgeschrittene)</t>
   </si>
 </sst>
 </file>
@@ -678,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -727,6 +735,69 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -781,67 +852,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -850,6 +867,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,45 +894,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,11 +927,23 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -931,9 +957,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -958,26 +981,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,34 +1347,34 @@
       <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="71" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="71" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="72"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="70">
+      <c r="A2" s="40">
         <v>0.375</v>
       </c>
       <c r="B2" s="3"/>
@@ -1336,14 +1387,14 @@
       <c r="I2" s="4"/>
       <c r="J2" s="20"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="49"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1354,12 +1405,12 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="50"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="42">
         <v>0.41666666666666669</v>
       </c>
       <c r="B4" s="13"/>
@@ -1377,11 +1428,11 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="73" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="11"/>
       <c r="E5" s="18"/>
       <c r="F5" s="11"/>
@@ -1395,11 +1446,11 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="42">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -1413,7 +1464,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="17"/>
@@ -1429,7 +1480,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="42">
         <v>0.5</v>
       </c>
       <c r="B8" s="13"/>
@@ -1447,7 +1498,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="10"/>
       <c r="C9" s="18"/>
       <c r="D9" s="11"/>
@@ -1463,7 +1514,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="A10" s="42">
         <v>0.54166666666666696</v>
       </c>
       <c r="B10" s="13"/>
@@ -1481,7 +1532,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -1497,7 +1548,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="42">
         <v>0.58333333333333304</v>
       </c>
       <c r="B12" s="13"/>
@@ -1515,7 +1566,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -1531,7 +1582,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
+      <c r="A14" s="47">
         <v>0.625</v>
       </c>
       <c r="B14" s="13"/>
@@ -1544,14 +1595,14 @@
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="51"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -1562,12 +1613,12 @@
       <c r="I15" s="11"/>
       <c r="J15" s="17"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="A16" s="42">
         <v>0.66666666666666596</v>
       </c>
       <c r="B16" s="13"/>
@@ -1578,16 +1629,16 @@
       <c r="G16" s="19"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="53"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -1596,52 +1647,52 @@
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="74"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68">
+      <c r="A18" s="47">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="55"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="68"/>
       <c r="L19" s="17"/>
       <c r="M19" s="6"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58">
+      <c r="A20" s="49">
         <v>0.75</v>
       </c>
       <c r="B20" s="5"/>
@@ -1652,16 +1703,16 @@
       <c r="G20" s="25"/>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="45"/>
+      <c r="K20" s="66"/>
       <c r="L20" s="16"/>
       <c r="M20" s="15"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -1670,14 +1721,14 @@
       <c r="G21" s="1"/>
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
       <c r="L21" s="17"/>
       <c r="M21" s="12"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+      <c r="A22" s="42">
         <v>0.79166666666666596</v>
       </c>
       <c r="B22" s="13"/>
@@ -1695,7 +1746,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -1711,7 +1762,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="56">
+      <c r="A24" s="42">
         <v>0.83333333333333304</v>
       </c>
       <c r="B24" s="13"/>
@@ -1720,10 +1771,10 @@
       <c r="E24" s="14"/>
       <c r="F24" s="16"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="16"/>
       <c r="K24" s="14"/>
       <c r="L24" s="16"/>
@@ -1731,15 +1782,15 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="17"/>
       <c r="K25" s="11"/>
       <c r="L25" s="17"/>
@@ -1747,7 +1798,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="58">
+      <c r="A26" s="49">
         <v>0.875</v>
       </c>
       <c r="B26" s="5"/>
@@ -1756,8 +1807,8 @@
       <c r="E26" s="1"/>
       <c r="F26" s="16"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
@@ -1765,7 +1816,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -1782,34 +1833,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="H24:I26"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="L14:M18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B5:C6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="H24:I26"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="L14:M18"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1825,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,111 +1894,111 @@
       <c r="A1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="71" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="71" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="72"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="77"/>
+      <c r="A2" s="42">
+        <v>0.375</v>
+      </c>
+      <c r="B2" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="134"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="127"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="17"/>
       <c r="G3" s="11"/>
       <c r="H3" s="17"/>
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="78"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="128"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
+      <c r="A4" s="42">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B4" s="131"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="16"/>
       <c r="G4" s="19"/>
       <c r="H4" s="14"/>
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="77"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="129"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41"/>
+      <c r="B5" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11"/>
       <c r="I5" s="18"/>
       <c r="J5" s="11"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="78"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="128"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="42">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6" s="132"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
       <c r="G6" s="14"/>
@@ -1955,260 +2006,254 @@
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="122" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="123"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="124"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="80"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B10" s="124"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="77"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="M10" s="80"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68">
-        <v>0.625</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="15"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="45"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="18"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="12"/>
+      <c r="M13" s="6"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
-        <v>0.70833333333333304</v>
+      <c r="A14" s="42">
+        <v>0.625</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="16"/>
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
       <c r="K14" s="14"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="45"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="17"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="11"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="11"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="6"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
-        <v>0.75</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
+      <c r="A16" s="42">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="14"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="16"/>
       <c r="M16" s="15"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="45"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="66"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="17"/>
       <c r="M17" s="12"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
-        <v>0.79166666666666596</v>
-      </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="14"/>
+      <c r="A18" s="42">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="14"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="15"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="17"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="66"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="66"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="17"/>
-      <c r="M19" s="12"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
+      <c r="A20" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
       <c r="J20" s="16"/>
       <c r="K20" s="14"/>
       <c r="L20" s="16"/>
@@ -2216,92 +2261,183 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="17"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="84"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="66"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="17"/>
       <c r="M21" s="12"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
-        <v>0.875</v>
-      </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="42">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="16"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="6"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="9"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="84"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="66"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="12"/>
       <c r="N23" s="1"/>
     </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="42">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="44"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="49">
+        <v>0.875</v>
+      </c>
+      <c r="B26" s="82"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="48">
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="H25:I27"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E27"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="H21:I23"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="B20:C23"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="D21:E23"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="H19:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.78125" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2335,44 +2471,44 @@
       <c r="A1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="71" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="71" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="72"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68">
+      <c r="A2" s="47">
         <v>0.58333333333333304</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="16"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="74"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="16"/>
       <c r="I2" s="14"/>
       <c r="J2" s="16"/>
@@ -2382,13 +2518,13 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="76"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="11"/>
@@ -2398,17 +2534,17 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68">
+      <c r="A4" s="47">
         <v>0.625</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="98"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="74"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="16"/>
       <c r="I4" s="14"/>
       <c r="J4" s="16"/>
@@ -2418,13 +2554,13 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="76"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="17"/>
       <c r="I5" s="11"/>
       <c r="J5" s="17"/>
@@ -2434,19 +2570,19 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68">
+      <c r="A6" s="47">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="74"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
@@ -2456,13 +2592,13 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="76"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
       <c r="J7" s="11"/>
@@ -2472,19 +2608,19 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68">
+      <c r="A8" s="47">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="74"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="1"/>
       <c r="I8" s="19"/>
       <c r="J8" s="1"/>
@@ -2494,13 +2630,13 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="76"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="17"/>
@@ -2510,19 +2646,19 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99">
+      <c r="A10" s="101">
         <v>0.75</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="93"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="74"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16"/>
@@ -2532,13 +2668,13 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="76"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="11"/>
@@ -2548,19 +2684,19 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68">
+      <c r="A12" s="47">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="93"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="74"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="14"/>
       <c r="I12" s="19"/>
       <c r="J12" s="14"/>
@@ -2570,13 +2706,13 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="101"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="76"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="17"/>
@@ -2586,11 +2722,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="68">
+      <c r="A14" s="47">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="16"/>
@@ -2604,7 +2740,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="7"/>
       <c r="C15" s="21"/>
       <c r="D15" s="8"/>
@@ -2638,6 +2774,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="F12:G13"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
@@ -2651,17 +2798,6 @@
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="F10:G11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2679,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -2703,34 +2839,34 @@
       <c r="A1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="71" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="72"/>
-      <c r="L1" s="71" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="72"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68">
+      <c r="A2" s="47">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="14"/>
@@ -2748,17 +2884,17 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
       <c r="E3" s="11"/>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="106"/>
+      <c r="I3" s="105"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
       <c r="L3" s="17"/>
@@ -2766,7 +2902,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68">
+      <c r="A4" s="47">
         <v>0.70833333333333304</v>
       </c>
       <c r="B4" s="14"/>
@@ -2775,8 +2911,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="16"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="117"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="16"/>
@@ -2784,17 +2920,17 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="17"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="115" t="s">
+      <c r="H5" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="106"/>
+      <c r="I5" s="105"/>
       <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="17"/>
@@ -2802,7 +2938,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120">
+      <c r="A6" s="103">
         <v>0.75</v>
       </c>
       <c r="B6" s="1"/>
@@ -2811,8 +2947,8 @@
       <c r="E6" s="14"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="117"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="107"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
@@ -2820,17 +2956,17 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="120"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="1"/>
       <c r="C7" s="25"/>
       <c r="D7" s="1"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="115" t="s">
+      <c r="H7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="106"/>
+      <c r="I7" s="105"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="24"/>
@@ -2838,39 +2974,39 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="108">
+      <c r="A8" s="113">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="109"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="105"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="111"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2885,37 +3021,37 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="117"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2931,17 +3067,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I6"/>
     <mergeCell ref="L8:M9"/>
     <mergeCell ref="J8:K9"/>
     <mergeCell ref="A8:A9"/>
@@ -2953,6 +3078,17 @@
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8020833333333333" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/images/stundenplaene/Stundenpläne_aktuell.xlsx
+++ b/images/stundenplaene/Stundenpläne_aktuell.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Montag</t>
   </si>
@@ -57,10 +57,6 @@
   <si>
     <t>Wu Shu Kinder
 (ab 17:30)</t>
-  </si>
-  <si>
-    <t>Wu Shu Kinder
-(ab 18:30)</t>
   </si>
   <si>
     <t>Kung Fu
@@ -735,300 +731,300 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1345,36 +1341,36 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="74"/>
+      <c r="F1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="74"/>
+      <c r="H1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="74"/>
+      <c r="J1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="38" t="s">
+      <c r="K1" s="74"/>
+      <c r="L1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="39"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
+      <c r="A2" s="72">
         <v>0.375</v>
       </c>
       <c r="B2" s="3"/>
@@ -1387,14 +1383,14 @@
       <c r="I2" s="4"/>
       <c r="J2" s="20"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="70"/>
+      <c r="L2" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="51"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1405,12 +1401,12 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="71"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
+      <c r="A4" s="58">
         <v>0.41666666666666669</v>
       </c>
       <c r="B4" s="13"/>
@@ -1428,11 +1424,11 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="11"/>
       <c r="E5" s="18"/>
       <c r="F5" s="11"/>
@@ -1446,11 +1442,11 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
+      <c r="A6" s="58">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -1464,7 +1460,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="17"/>
@@ -1480,7 +1476,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
+      <c r="A8" s="58">
         <v>0.5</v>
       </c>
       <c r="B8" s="13"/>
@@ -1498,7 +1494,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="10"/>
       <c r="C9" s="18"/>
       <c r="D9" s="11"/>
@@ -1514,7 +1510,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
+      <c r="A10" s="58">
         <v>0.54166666666666696</v>
       </c>
       <c r="B10" s="13"/>
@@ -1532,7 +1528,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -1548,7 +1544,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
+      <c r="A12" s="58">
         <v>0.58333333333333304</v>
       </c>
       <c r="B12" s="13"/>
@@ -1566,7 +1562,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -1582,7 +1578,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47">
+      <c r="A14" s="70">
         <v>0.625</v>
       </c>
       <c r="B14" s="13"/>
@@ -1595,14 +1591,14 @@
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="72"/>
+      <c r="L14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="53"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -1613,12 +1609,12 @@
       <c r="I15" s="11"/>
       <c r="J15" s="17"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="74"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42">
+      <c r="A16" s="58">
         <v>0.66666666666666596</v>
       </c>
       <c r="B16" s="13"/>
@@ -1629,16 +1625,16 @@
       <c r="G16" s="19"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="65" t="s">
+      <c r="J16" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="66"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="74"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="55"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -1647,52 +1643,52 @@
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="74"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47">
+      <c r="A18" s="70">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="65" t="s">
+      <c r="J18" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="66"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="76"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="57"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="68"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
       <c r="L19" s="17"/>
       <c r="M19" s="6"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+      <c r="A20" s="60">
         <v>0.75</v>
       </c>
       <c r="B20" s="5"/>
@@ -1703,16 +1699,16 @@
       <c r="G20" s="25"/>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="66"/>
+      <c r="J20" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="47"/>
       <c r="L20" s="16"/>
       <c r="M20" s="15"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -1721,14 +1717,14 @@
       <c r="G21" s="1"/>
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
       <c r="L21" s="17"/>
       <c r="M21" s="12"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42">
+      <c r="A22" s="58">
         <v>0.79166666666666596</v>
       </c>
       <c r="B22" s="13"/>
@@ -1746,7 +1742,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -1762,7 +1758,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="42">
+      <c r="A24" s="58">
         <v>0.83333333333333304</v>
       </c>
       <c r="B24" s="13"/>
@@ -1771,10 +1767,10 @@
       <c r="E24" s="14"/>
       <c r="F24" s="16"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="60"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="16"/>
       <c r="K24" s="14"/>
       <c r="L24" s="16"/>
@@ -1782,15 +1778,15 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
       <c r="J25" s="17"/>
       <c r="K25" s="11"/>
       <c r="L25" s="17"/>
@@ -1798,7 +1794,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+      <c r="A26" s="60">
         <v>0.875</v>
       </c>
       <c r="B26" s="5"/>
@@ -1807,8 +1803,8 @@
       <c r="E26" s="1"/>
       <c r="F26" s="16"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
@@ -1816,7 +1812,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -1833,34 +1829,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="H24:I26"/>
     <mergeCell ref="J16:K17"/>
     <mergeCell ref="L2:M3"/>
     <mergeCell ref="J18:K19"/>
     <mergeCell ref="J20:K21"/>
     <mergeCell ref="L14:M18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1879,7 +1875,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,42 +1888,42 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="74"/>
+      <c r="F1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="74"/>
+      <c r="H1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="74"/>
+      <c r="J1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="38" t="s">
+      <c r="K1" s="74"/>
+      <c r="L1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="39"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
+      <c r="A2" s="58">
         <v>0.375</v>
       </c>
-      <c r="B2" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="134"/>
+      <c r="B2" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="84"/>
       <c r="D2" s="20"/>
       <c r="E2" s="4"/>
       <c r="F2" s="20"/>
@@ -1936,14 +1932,14 @@
       <c r="I2" s="23"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="127"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="95"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
       <c r="D3" s="24"/>
       <c r="E3" s="1"/>
       <c r="F3" s="17"/>
@@ -1952,52 +1948,52 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="128"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="96"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
+      <c r="A4" s="58">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="16"/>
       <c r="G4" s="19"/>
       <c r="H4" s="14"/>
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="129"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="97"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11"/>
       <c r="I5" s="18"/>
       <c r="J5" s="11"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="128"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="96"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
+      <c r="A6" s="58">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="86"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -2006,14 +2002,14 @@
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="122" t="s">
+      <c r="L6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="123"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="24"/>
@@ -2024,84 +2020,84 @@
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="81"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="80"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42">
+      <c r="A8" s="58">
         <v>0.5</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="65" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="80"/>
+      <c r="M8" s="79"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="81"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42">
+      <c r="A10" s="58">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="80"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="79"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="81"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+      <c r="A12" s="60">
         <v>0.58333333333333304</v>
       </c>
       <c r="B12" s="5"/>
@@ -2119,7 +2115,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -2135,7 +2131,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42">
+      <c r="A14" s="58">
         <v>0.625</v>
       </c>
       <c r="B14" s="13"/>
@@ -2153,7 +2149,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -2169,7 +2165,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42">
+      <c r="A16" s="58">
         <v>0.66666666666666596</v>
       </c>
       <c r="B16" s="13"/>
@@ -2187,13 +2183,13 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="66"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
@@ -2205,13 +2201,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42">
+      <c r="A18" s="58">
         <v>0.70833333333333304</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -2223,19 +2219,19 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="66"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="65" t="s">
+      <c r="H19" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="66"/>
+      <c r="I19" s="47"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="17"/>
@@ -2243,17 +2239,17 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+      <c r="A20" s="60">
         <v>0.75</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="68"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
       <c r="J20" s="16"/>
       <c r="K20" s="14"/>
       <c r="L20" s="16"/>
@@ -2261,19 +2257,17 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="84"/>
+      <c r="D21" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="91"/>
       <c r="F21" s="24"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="17"/>
@@ -2281,17 +2275,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="42">
+      <c r="A22" s="58">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="93"/>
       <c r="F22" s="14"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="69"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="16"/>
@@ -2299,19 +2293,19 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="84"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="91"/>
       <c r="F23" s="11"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="66"/>
+      <c r="H23" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="47"/>
       <c r="J23" s="17"/>
       <c r="K23" s="11"/>
       <c r="L23" s="17"/>
@@ -2319,70 +2313,70 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="42">
+      <c r="A24" s="58">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="16"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="68"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49"/>
       <c r="J24" s="16"/>
       <c r="K24" s="14"/>
       <c r="L24" s="16"/>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="44"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="76"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="44"/>
+      <c r="H25" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="76"/>
       <c r="J25" s="17"/>
       <c r="K25" s="11"/>
       <c r="L25" s="17"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+      <c r="A26" s="60">
         <v>0.875</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="77"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="105"/>
       <c r="F26" s="16"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="77"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="105"/>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="79"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
       <c r="F27" s="22"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="79"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="22"/>
@@ -2390,34 +2384,12 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="H25:I27"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E27"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A24:A25"/>
@@ -2432,12 +2404,34 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H25:I27"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="B24:C27"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E27"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="J10:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.78125" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2469,46 +2463,46 @@
   <sheetData>
     <row r="1" spans="1:14" s="27" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="74"/>
+      <c r="F1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="74"/>
+      <c r="H1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="74"/>
+      <c r="J1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="38" t="s">
+      <c r="K1" s="74"/>
+      <c r="L1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="39"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+      <c r="A2" s="70">
         <v>0.58333333333333304</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="16"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="44"/>
+      <c r="F2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="76"/>
       <c r="H2" s="16"/>
       <c r="I2" s="14"/>
       <c r="J2" s="16"/>
@@ -2518,13 +2512,13 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="11"/>
@@ -2534,17 +2528,17 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
+      <c r="A4" s="70">
         <v>0.625</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="116"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="44"/>
+      <c r="F4" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="76"/>
       <c r="H4" s="16"/>
       <c r="I4" s="14"/>
       <c r="J4" s="16"/>
@@ -2554,13 +2548,13 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="46"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="78"/>
       <c r="H5" s="17"/>
       <c r="I5" s="11"/>
       <c r="J5" s="17"/>
@@ -2570,19 +2564,19 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
+      <c r="A6" s="70">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="44"/>
+      <c r="B6" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="76"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="44"/>
+      <c r="F6" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="76"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
@@ -2592,13 +2586,13 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="46"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
       <c r="J7" s="11"/>
@@ -2608,19 +2602,19 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
+      <c r="A8" s="70">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="44"/>
+      <c r="B8" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="76"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="44"/>
+      <c r="F8" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="76"/>
       <c r="H8" s="1"/>
       <c r="I8" s="19"/>
       <c r="J8" s="1"/>
@@ -2630,13 +2624,13 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="46"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="17"/>
@@ -2646,19 +2640,19 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101">
+      <c r="A10" s="119">
         <v>0.75</v>
       </c>
-      <c r="B10" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="92"/>
+      <c r="B10" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="113"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="44"/>
+      <c r="F10" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="76"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16"/>
@@ -2668,13 +2662,13 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="96"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="46"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="11"/>
@@ -2684,19 +2678,19 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47">
+      <c r="A12" s="70">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B12" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="92"/>
+      <c r="B12" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="113"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="44"/>
+      <c r="F12" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="76"/>
       <c r="H12" s="14"/>
       <c r="I12" s="19"/>
       <c r="J12" s="14"/>
@@ -2706,13 +2700,13 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="46"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="78"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="17"/>
@@ -2722,11 +2716,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="47">
+      <c r="A14" s="70">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="16"/>
@@ -2740,7 +2734,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="97"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="7"/>
       <c r="C15" s="21"/>
       <c r="D15" s="8"/>
@@ -2757,7 +2751,7 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
@@ -2766,7 +2760,7 @@
       <c r="G17" s="32"/>
       <c r="H17" s="33"/>
       <c r="J17" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
@@ -2774,17 +2768,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="F12:G13"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
@@ -2798,6 +2781,17 @@
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="F10:G11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2837,36 +2831,36 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="74"/>
+      <c r="F1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="74"/>
+      <c r="H1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="38" t="s">
+      <c r="I1" s="74"/>
+      <c r="J1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="38" t="s">
+      <c r="K1" s="74"/>
+      <c r="L1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="39"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+      <c r="A2" s="70">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="14"/>
@@ -2884,17 +2878,17 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
       <c r="E3" s="11"/>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="105"/>
+      <c r="H3" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="88"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
       <c r="L3" s="17"/>
@@ -2902,7 +2896,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
+      <c r="A4" s="70">
         <v>0.70833333333333304</v>
       </c>
       <c r="B4" s="14"/>
@@ -2911,8 +2905,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="16"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="16"/>
@@ -2920,17 +2914,17 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="17"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="105"/>
+      <c r="H5" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="88"/>
       <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="17"/>
@@ -2938,7 +2932,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103">
+      <c r="A6" s="135">
         <v>0.75</v>
       </c>
       <c r="B6" s="1"/>
@@ -2947,8 +2941,8 @@
       <c r="E6" s="14"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="107"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
@@ -2956,17 +2950,17 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="1"/>
       <c r="C7" s="25"/>
       <c r="D7" s="1"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="105"/>
+      <c r="H7" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="88"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="24"/>
@@ -2974,39 +2968,39 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="113">
+      <c r="A8" s="126">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="109"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="122"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="114"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="111"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="124"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3021,37 +3015,37 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="117"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3067,6 +3061,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I6"/>
     <mergeCell ref="L8:M9"/>
     <mergeCell ref="J8:K9"/>
     <mergeCell ref="A8:A9"/>
@@ -3078,17 +3083,6 @@
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8020833333333333" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/images/stundenplaene/Stundenpläne_aktuell.xlsx
+++ b/images/stundenplaene/Stundenpläne_aktuell.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Wetzikon" sheetId="1" r:id="rId1"/>
-    <sheet name="Rüti" sheetId="2" r:id="rId2"/>
-    <sheet name="Lindau  Winterberg" sheetId="3" r:id="rId3"/>
-    <sheet name="Hittnau" sheetId="4" r:id="rId4"/>
+    <sheet name="Grüt" sheetId="6" r:id="rId2"/>
+    <sheet name="Dürnten" sheetId="8" r:id="rId3"/>
+    <sheet name="Rüti" sheetId="2" r:id="rId4"/>
+    <sheet name="Lindau  Winterberg" sheetId="3" r:id="rId5"/>
+    <sheet name="Hittnau" sheetId="4" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t>Montag</t>
   </si>
@@ -37,26 +40,7 @@
     <t>Samstag</t>
   </si>
   <si>
-    <t>Wu Shu
-Kinder</t>
-  </si>
-  <si>
-    <t>Taiji / Qi Gong</t>
-  </si>
-  <si>
     <t>Kung Fu</t>
-  </si>
-  <si>
-    <t>Kung Fu
-(ab 20:15)</t>
-  </si>
-  <si>
-    <t>Wu Shu Kinder
-(ab 16:30)</t>
-  </si>
-  <si>
-    <t>Wu Shu Kinder
-(ab 17:30)</t>
   </si>
   <si>
     <t>Kung Fu
@@ -67,38 +51,14 @@
 (ab 19:30)</t>
   </si>
   <si>
-    <t>Wu Shu Jugendliche 
-(18:15-19:15) **</t>
-  </si>
-  <si>
     <t>Kung Fu Erwachsene 
 (19:15-20:30) **</t>
-  </si>
-  <si>
-    <t>Wu Shu Kinder 
-(6-10 jährig) *</t>
-  </si>
-  <si>
-    <t>Wu Shu Jugendliche 
-(11-18 jährig) *</t>
-  </si>
-  <si>
-    <t>Wu Shu Kinder 
-(4-8 jährig) *</t>
-  </si>
-  <si>
-    <t>Wu Shu Kinder 
-(9-13 jährig) *</t>
   </si>
   <si>
     <t>** = Training in Winterberg, Eschikerstr. 9</t>
   </si>
   <si>
     <t>* = Training in Lindau, Neuhofstrasse 8 im Emdwis im Mehrzweckraum</t>
-  </si>
-  <si>
-    <t>Wu Shu Kinder
-(16:30 - 17:30)</t>
   </si>
   <si>
     <t>Hittnau</t>
@@ -113,51 +73,8 @@
     <t>Wetzikon</t>
   </si>
   <si>
-    <t>Wu Shu
-Fortgeschrittene</t>
-  </si>
-  <si>
-    <t>Freies Training</t>
-  </si>
-  <si>
-    <t>Wu Shu
-Kinder (5-8Jahre)</t>
-  </si>
-  <si>
-    <t>Wu Shu Kinder 
-(10-15 jährig) *</t>
-  </si>
-  <si>
-    <t>Wu Shu Jugendliche 
-(10-15 jährig) *</t>
-  </si>
-  <si>
-    <t>Wu Shu  Jugendliche
-(Fortgeschrittene) *</t>
-  </si>
-  <si>
-    <t>Wu Shu  
-Taiji / Qi Gong *</t>
-  </si>
-  <si>
-    <t>Taiji / Qi Gong 
-(8:20 -9:20)</t>
-  </si>
-  <si>
-    <t>Kung Fu Jugendliche 
-(ab18:30)</t>
-  </si>
-  <si>
     <t>Kung Fu 
 (ab19:30)</t>
-  </si>
-  <si>
-    <t>Wu Shu Kinder
-(17:30 -18:30)</t>
-  </si>
-  <si>
-    <t>Kung Fu Jugendliche Fortgeschrittene
-(18:30 -19:30)</t>
   </si>
   <si>
     <t>Taiji / Qi Gong 
@@ -170,6 +87,92 @@
   <si>
     <t>Taiji Chuan &amp; Qi Gong 
 (Fortgeschrittene)</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Kinder
+(ab 16:30)</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Kinder
+(ab 17:30)</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Kinder 
+(ab18:30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kung Fu/Wu Shu Kinder
+</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Kinder
+Kinder (5-10Jahre)</t>
+  </si>
+  <si>
+    <t>Taiji / Qi Gong 
+(10:30 - 11:45)</t>
+  </si>
+  <si>
+    <t>Taiji / Qi Gong 
+(8:30 -9:45)</t>
+  </si>
+  <si>
+    <t>Dürnten</t>
+  </si>
+  <si>
+    <t>Kung Fu Jugendliche &amp; Erwachsene
+(20:15-21:15)</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Kinder 
+(4-8 jährig) *</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Kinder 
+(9-13 jährig) *</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Kinder 
+(10-15 jährig) *</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Jugendliche 
+(10-15 jährig) *</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu   
+Taiji / Qi Gong *</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Jugendliche 
+(11-18 jährig) *</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Kinder 
+(6-10 jährig) *</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Jugendliche 
+(18:15-19:15) **</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Jugendliche
+(Fortgeschrittene) *</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Kinder
+(16:30 - 17:30)</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Kinder
+(17:30 -18:30)</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Jugendliche Fortgeschrittene
+(18:30 -19:30)</t>
+  </si>
+  <si>
+    <t>Freies Training</t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -735,295 +738,272 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,37 +1321,37 @@
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="73" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="73" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="73" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="73" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="73" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="74"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="72">
-        <v>0.375</v>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58">
+        <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1383,10 +1363,8 @@
       <c r="I2" s="4"/>
       <c r="J2" s="20"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="51"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="15"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1401,13 +1379,15 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="52"/>
+      <c r="L3" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="48"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
-        <v>0.41666666666666669</v>
+      <c r="A4" s="60">
+        <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="19"/>
@@ -1416,19 +1396,17 @@
       <c r="F4" s="14"/>
       <c r="G4" s="19"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="16"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
-      <c r="B5" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="76"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="11"/>
       <c r="E5" s="18"/>
       <c r="F5" s="11"/>
@@ -1436,33 +1414,35 @@
       <c r="H5" s="17"/>
       <c r="I5" s="18"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="18"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="17"/>
       <c r="M5" s="12"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
       <c r="G6" s="14"/>
       <c r="H6" s="16"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="14"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
       <c r="M6" s="15"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="44"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -1475,15 +1455,15 @@
       <c r="M7" s="12"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="19"/>
       <c r="H8" s="14"/>
       <c r="I8" s="19"/>
@@ -1493,13 +1473,13 @@
       <c r="M8" s="15"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="18"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="11"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="18"/>
       <c r="H9" s="11"/>
       <c r="I9" s="18"/>
@@ -1510,15 +1490,15 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
-        <v>0.54166666666666696</v>
+      <c r="A10" s="51">
+        <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="16"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="16"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16"/>
@@ -1527,25 +1507,25 @@
       <c r="M10" s="15"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
       <c r="E11" s="11"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="17"/>
       <c r="M11" s="12"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
-        <v>0.58333333333333304</v>
+      <c r="A12" s="51">
+        <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -1561,8 +1541,8 @@
       <c r="M12" s="15"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -1571,15 +1551,15 @@
       <c r="G13" s="11"/>
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="11"/>
       <c r="L13" s="17"/>
       <c r="M13" s="12"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
-        <v>0.625</v>
+      <c r="A14" s="51">
+        <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
@@ -1591,14 +1571,12 @@
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="53"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="15"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -1609,13 +1587,13 @@
       <c r="I15" s="11"/>
       <c r="J15" s="17"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
-        <v>0.66666666666666596</v>
+      <c r="A16" s="51">
+        <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -1625,16 +1603,14 @@
       <c r="G16" s="19"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="55"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -1643,53 +1619,49 @@
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
+      <c r="A18" s="51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="57"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="49"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="17"/>
-      <c r="M19" s="6"/>
+      <c r="M19" s="12"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60">
-        <v>0.75</v>
+      <c r="A20" s="51">
+        <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="19"/>
@@ -1698,34 +1670,32 @@
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="47"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
       <c r="L20" s="16"/>
       <c r="M20" s="15"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
       <c r="E21" s="18"/>
       <c r="F21" s="24"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="49"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="17"/>
       <c r="M21" s="12"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
-        <v>0.79166666666666596</v>
+      <c r="A22" s="51">
+        <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="19"/>
@@ -1736,13 +1706,13 @@
       <c r="H22" s="14"/>
       <c r="I22" s="19"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="16"/>
       <c r="M22" s="15"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -1750,16 +1720,16 @@
       <c r="F23" s="11"/>
       <c r="G23" s="18"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="11"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="17"/>
       <c r="M23" s="12"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="58">
-        <v>0.83333333333333304</v>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51">
+        <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="19"/>
@@ -1767,35 +1737,33 @@
       <c r="E24" s="14"/>
       <c r="F24" s="16"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="41"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="16"/>
       <c r="M24" s="15"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="17"/>
       <c r="M25" s="12"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="60">
-        <v>0.875</v>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51">
+        <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="19"/>
@@ -1803,16 +1771,16 @@
       <c r="E26" s="1"/>
       <c r="F26" s="16"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
       <c r="M26" s="6"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="53"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -1828,35 +1796,29 @@
       <c r="N27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="22">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="H24:I26"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="L14:M18"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1864,7 +1826,7 @@
     <oddHeader>&amp;L                 
 &amp;G&amp;C&amp;"-,Fett"&amp;8
 &amp;18
-                                                            Stundenplan                                           Wetzikon</oddHeader>
+                                                            Stundenplan                                           Wetzikon&amp;R&amp;"-,Fett"&amp;14&amp;KFF0000!!! NEU: Bahnhofstrasse 256 (ASW Saal, Kreuzackerstrasse 1) !!!</oddHeader>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -1874,8 +1836,855 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="13" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="62"/>
+      <c r="F1" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="62"/>
+      <c r="H1" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="62"/>
+      <c r="J1" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="62"/>
+      <c r="L1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="62"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="48"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="60">
+        <v>0.375</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51">
+        <v>0.625</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="53"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;L                 
+&amp;G&amp;C&amp;"-,Fett"&amp;8
+&amp;18
+                                                            Stundenplan             Grüt &amp;12(Wolfrichtischule, Wolfrichtistr. 14)</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="13" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="27" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="62"/>
+      <c r="F1" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="62"/>
+      <c r="H1" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="62"/>
+      <c r="J1" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="62"/>
+      <c r="L1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="62"/>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B4" s="91"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="B6" s="91"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B8" s="91"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B10" s="91"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="76"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51">
+        <v>0.875</v>
+      </c>
+      <c r="B12" s="91"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L                    
+&amp;G&amp;C&amp;"-,Fett"&amp;8
+&amp;18
+                                                                         Stundenplan                               Dürnten &amp;12(Chilifitness, Bubikonerstrasse 45a)</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,47 +2692,54 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="13" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="73" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="73" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="73" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="73" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="73" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="74"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="60">
         <v>0.375</v>
       </c>
-      <c r="B2" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="84"/>
+      <c r="B2" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="68"/>
       <c r="D2" s="20"/>
       <c r="E2" s="4"/>
       <c r="F2" s="20"/>
@@ -1932,14 +2748,14 @@
       <c r="I2" s="23"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="24"/>
       <c r="E3" s="1"/>
       <c r="F3" s="17"/>
@@ -1948,52 +2764,52 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="96"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="58">
+      <c r="A4" s="60">
         <v>0.41666666666666669</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="38"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="88"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="16"/>
       <c r="G4" s="19"/>
       <c r="H4" s="14"/>
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="97"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
-      <c r="B5" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
+      <c r="B5" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="11"/>
+      <c r="J5" s="126"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="96"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="81"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58">
+      <c r="A6" s="60">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="93"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -2002,10 +2818,10 @@
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="82"/>
+      <c r="L6" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="64"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2020,84 +2836,84 @@
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="80"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
+      <c r="A8" s="60">
         <v>0.5</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="79"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="64"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="80"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="66"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
+      <c r="A10" s="60">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="79"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="64"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="80"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="66"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60">
+      <c r="A12" s="96">
         <v>0.58333333333333304</v>
       </c>
       <c r="B12" s="5"/>
@@ -2131,7 +2947,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
+      <c r="A14" s="60">
         <v>0.625</v>
       </c>
       <c r="B14" s="13"/>
@@ -2144,8 +2960,10 @@
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="15"/>
+      <c r="L14" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="48"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2160,12 +2978,12 @@
       <c r="I15" s="11"/>
       <c r="J15" s="17"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="129"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58">
+      <c r="A16" s="60">
         <v>0.66666666666666596</v>
       </c>
       <c r="B16" s="13"/>
@@ -2178,18 +2996,18 @@
       <c r="I16" s="14"/>
       <c r="J16" s="16"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="15"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="50"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="47"/>
+      <c r="D17" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="88"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
@@ -2201,13 +3019,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
+      <c r="A18" s="60">
         <v>0.70833333333333304</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -2222,16 +3040,16 @@
       <c r="A19" s="59"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="47"/>
+      <c r="D19" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="88"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="47"/>
+      <c r="H19" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="88"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="17"/>
@@ -2239,17 +3057,17 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60">
+      <c r="A20" s="96">
         <v>0.75</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="89"/>
       <c r="J20" s="16"/>
       <c r="K20" s="14"/>
       <c r="L20" s="16"/>
@@ -2257,17 +3075,17 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="91"/>
+      <c r="D21" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="76"/>
       <c r="F21" s="24"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="17"/>
@@ -2275,17 +3093,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
+      <c r="A22" s="60">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="93"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="78"/>
       <c r="F22" s="14"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="16"/>
@@ -2294,18 +3112,18 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="59"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="91"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="76"/>
       <c r="F23" s="11"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="47"/>
+      <c r="H23" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="88"/>
       <c r="J23" s="17"/>
       <c r="K23" s="11"/>
       <c r="L23" s="17"/>
@@ -2313,19 +3131,19 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="58">
+      <c r="A24" s="60">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B24" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="93"/>
+      <c r="B24" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="78"/>
       <c r="F24" s="16"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="89"/>
       <c r="J24" s="16"/>
       <c r="K24" s="14"/>
       <c r="L24" s="16"/>
@@ -2333,57 +3151,58 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="59"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="76"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="44"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="76"/>
+      <c r="H25" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="44"/>
       <c r="J25" s="17"/>
       <c r="K25" s="11"/>
       <c r="L25" s="17"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="60">
+      <c r="A26" s="96">
         <v>0.875</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="105"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="16"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="105"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="85"/>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="87"/>
       <c r="F27" s="22"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="107"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="87"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="22"/>
       <c r="M27" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="49">
+    <mergeCell ref="L14:M16"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -2404,24 +3223,18 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H25:I27"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="B24:C27"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E27"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
     <mergeCell ref="B22:C23"/>
     <mergeCell ref="H19:I20"/>
     <mergeCell ref="H21:I22"/>
     <mergeCell ref="H23:I24"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="H25:I27"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E27"/>
     <mergeCell ref="L10:M11"/>
     <mergeCell ref="L8:M9"/>
     <mergeCell ref="L6:M7"/>
@@ -2432,25 +3245,32 @@
     <mergeCell ref="L4:M5"/>
     <mergeCell ref="J8:K9"/>
     <mergeCell ref="J10:K11"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="H10:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.78125" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L                    
+    <oddHeader xml:space="preserve">&amp;L                    
 &amp;G&amp;C&amp;"-,Fett"&amp;9
 &amp;18
-                                                          Stundenplan                                              Rüti</oddHeader>
+                                                          Stundenplan                                              Rüti&amp;R
+Joweidzentrum 4, 8630 Rüti </oddHeader>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,46 +3283,46 @@
   <sheetData>
     <row r="1" spans="1:14" s="27" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="73" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="73" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="73" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="73" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="73" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="74"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70">
+      <c r="A2" s="51">
         <v>0.58333333333333304</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="16"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="76"/>
+      <c r="F2" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="44"/>
       <c r="H2" s="16"/>
       <c r="I2" s="14"/>
       <c r="J2" s="16"/>
@@ -2512,13 +3332,13 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="78"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="11"/>
@@ -2528,17 +3348,17 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70">
+      <c r="A4" s="51">
         <v>0.625</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="116"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="104"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="76"/>
+      <c r="F4" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="44"/>
       <c r="H4" s="16"/>
       <c r="I4" s="14"/>
       <c r="J4" s="16"/>
@@ -2548,13 +3368,13 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="78"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="17"/>
       <c r="I5" s="11"/>
       <c r="J5" s="17"/>
@@ -2564,19 +3384,19 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
+      <c r="A6" s="51">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B6" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="76"/>
+      <c r="B6" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="44"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="76"/>
+      <c r="F6" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="44"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
@@ -2586,13 +3406,13 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="78"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
       <c r="J7" s="11"/>
@@ -2602,19 +3422,19 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
+      <c r="A8" s="51">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B8" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="76"/>
+      <c r="B8" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="44"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="76"/>
+      <c r="F8" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="44"/>
       <c r="H8" s="1"/>
       <c r="I8" s="19"/>
       <c r="J8" s="1"/>
@@ -2624,13 +3444,13 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="78"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="17"/>
@@ -2640,19 +3460,19 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="119">
+      <c r="A10" s="107">
         <v>0.75</v>
       </c>
-      <c r="B10" s="112" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="113"/>
+      <c r="B10" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="101"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="76"/>
+      <c r="F10" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="44"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16"/>
@@ -2661,14 +3481,14 @@
       <c r="M10" s="15"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
+    <row r="11" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="78"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="11"/>
@@ -2678,19 +3498,19 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
+      <c r="A12" s="51">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B12" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="113"/>
+      <c r="B12" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="101"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="76"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="14"/>
       <c r="I12" s="19"/>
       <c r="J12" s="14"/>
@@ -2700,13 +3520,13 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="121"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="78"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="17"/>
@@ -2716,11 +3536,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
+      <c r="A14" s="51">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="16"/>
@@ -2734,7 +3554,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="7"/>
       <c r="C15" s="21"/>
       <c r="D15" s="8"/>
@@ -2751,7 +3571,7 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
@@ -2760,7 +3580,7 @@
       <c r="G17" s="32"/>
       <c r="H17" s="33"/>
       <c r="J17" s="28" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
@@ -2805,12 +3625,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,36 +3651,36 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="73" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="73" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="H1" s="73" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="73" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="73" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="74"/>
+      <c r="M1" s="62"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70">
+      <c r="A2" s="51">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="14"/>
@@ -2877,26 +3697,26 @@
       <c r="M2" s="15"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
       <c r="E3" s="11"/>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="88"/>
+      <c r="H3" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="76"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
       <c r="L3" s="17"/>
       <c r="M3" s="12"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70">
+    <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51">
         <v>0.70833333333333304</v>
       </c>
       <c r="B4" s="14"/>
@@ -2905,34 +3725,34 @@
       <c r="E4" s="1"/>
       <c r="F4" s="16"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="78"/>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="16"/>
       <c r="M4" s="6"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+    <row r="5" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="17"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="88"/>
+      <c r="H5" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="76"/>
       <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="17"/>
       <c r="M5" s="6"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135">
+    <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="124">
         <v>0.75</v>
       </c>
       <c r="B6" s="1"/>
@@ -2941,66 +3761,66 @@
       <c r="E6" s="14"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
       <c r="M6" s="15"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
+    <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="124"/>
       <c r="B7" s="1"/>
       <c r="C7" s="25"/>
       <c r="D7" s="1"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="88"/>
+      <c r="H7" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="76"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="24"/>
       <c r="M7" s="6"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="126">
+    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="115">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="122"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="124"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="111"/>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="116"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="113"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="128"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3015,37 +3835,37 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="119"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="128"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="128"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3090,8 +3910,527 @@
     <oddHeader>&amp;L                    
 &amp;G&amp;C&amp;"-,Fett"&amp;8
 &amp;18
-                                                                 Stundenplan                                               Hittnau</oddHeader>
+                                                                 Stundenplan                                        Hittnau &amp;12(Jakob Stutz-Str. 50 8335 Hittnau)</oddHeader>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="13" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="62"/>
+      <c r="F1" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="62"/>
+      <c r="H1" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="62"/>
+      <c r="J1" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="62"/>
+      <c r="L1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="62"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="48"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="60">
+        <v>0.375</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52"/>
+      <c r="B7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51">
+        <v>0.625</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="51">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="53"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/images/stundenplaene/Stundenpläne_aktuell.xlsx
+++ b/images/stundenplaene/Stundenpläne_aktuell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wetzikon" sheetId="1" r:id="rId1"/>
@@ -745,6 +745,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -799,21 +808,93 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -832,27 +913,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -868,53 +937,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -922,32 +946,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -987,24 +1005,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3:M4"/>
     </sheetView>
   </sheetViews>
@@ -1323,34 +1323,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="61" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="61" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="62"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="61">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -1368,7 +1368,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1379,14 +1379,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
+      <c r="A4" s="63">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -1399,12 +1399,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -1420,7 +1420,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="54">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -1438,11 +1438,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -1456,11 +1456,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="A8" s="54">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -1474,7 +1474,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="10"/>
       <c r="C9" s="42"/>
       <c r="D9" s="11"/>
@@ -1490,7 +1490,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="A10" s="54">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -1508,7 +1508,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -1524,7 +1524,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
+      <c r="A12" s="54">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -1542,7 +1542,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -1558,7 +1558,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="54">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -1576,7 +1576,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -1592,7 +1592,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
+      <c r="A16" s="54">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -1610,7 +1610,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -1626,13 +1626,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
+      <c r="A18" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -1644,11 +1644,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -1660,7 +1660,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51">
+      <c r="A20" s="54">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -1678,7 +1678,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -1694,7 +1694,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51">
+      <c r="A22" s="54">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -1712,7 +1712,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -1728,7 +1728,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51">
+      <c r="A24" s="54">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -1746,7 +1746,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -1762,7 +1762,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51">
+      <c r="A26" s="54">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -1780,7 +1780,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -1797,12 +1797,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="L3:M4"/>
     <mergeCell ref="A24:A25"/>
@@ -1819,6 +1813,12 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1836,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C8"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,34 +1850,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="61" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="61" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="62"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="61">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -1895,7 +1895,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1906,14 +1906,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
+      <c r="A4" s="63">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -1926,12 +1926,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -1947,7 +1947,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="54">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -1965,11 +1965,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -1983,11 +1983,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="A8" s="54">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -2001,7 +2001,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="10"/>
       <c r="C9" s="42"/>
       <c r="D9" s="11"/>
@@ -2017,7 +2017,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="A10" s="54">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -2035,7 +2035,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -2051,7 +2051,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
+      <c r="A12" s="54">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -2069,7 +2069,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -2085,7 +2085,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="54">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -2103,7 +2103,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -2119,7 +2119,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
+      <c r="A16" s="54">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -2137,7 +2137,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -2153,13 +2153,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
+      <c r="A18" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -2171,11 +2171,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -2187,7 +2187,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51">
+      <c r="A20" s="54">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -2205,7 +2205,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -2221,7 +2221,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51">
+      <c r="A22" s="54">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -2239,7 +2239,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -2255,7 +2255,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51">
+      <c r="A24" s="54">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -2273,7 +2273,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -2289,7 +2289,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51">
+      <c r="A26" s="54">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -2307,7 +2307,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -2324,6 +2324,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
@@ -2333,19 +2346,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2364,7 +2364,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I12"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,34 +2379,34 @@
       <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="61" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="61" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="62"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51">
+      <c r="A2" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="13"/>
@@ -2424,7 +2424,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
@@ -2440,11 +2440,11 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+      <c r="A4" s="54">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="104"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
       <c r="F4" s="16"/>
@@ -2458,9 +2458,9 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="106"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
       <c r="F5" s="17"/>
@@ -2474,11 +2474,11 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="54">
         <v>0.75</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="104"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -2492,9 +2492,9 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -2508,11 +2508,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="A8" s="54">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="104"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
       <c r="F8" s="16"/>
@@ -2526,9 +2526,9 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="106"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="17"/>
@@ -2542,11 +2542,11 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="A10" s="54">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="104"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="16"/>
@@ -2560,17 +2560,17 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="76"/>
+      <c r="I11" s="65"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="17"/>
@@ -2578,17 +2578,17 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
+      <c r="A12" s="54">
         <v>0.875</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="104"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="78"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="16"/>
@@ -2596,9 +2596,9 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="106"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
       <c r="F13" s="17"/>
@@ -2612,7 +2612,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="54">
         <v>0.91666666666666663</v>
       </c>
       <c r="B14" s="14"/>
@@ -2630,7 +2630,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="22"/>
@@ -2647,6 +2647,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
     <mergeCell ref="H11:I12"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -2655,17 +2666,6 @@
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2684,7 +2684,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView showGridLines="0" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:M16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,40 +2706,40 @@
       <c r="A1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="61" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="61" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="62"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="60">
+      <c r="A2" s="63">
         <v>0.375</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="68"/>
+      <c r="C2" s="95"/>
       <c r="D2" s="20"/>
       <c r="E2" s="4"/>
       <c r="F2" s="20"/>
@@ -2748,14 +2748,14 @@
       <c r="I2" s="23"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
       <c r="D3" s="24"/>
       <c r="E3" s="1"/>
       <c r="F3" s="17"/>
@@ -2764,52 +2764,52 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="81"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="104"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
+      <c r="A4" s="63">
         <v>0.41666666666666669</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="38"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="16"/>
       <c r="G4" s="19"/>
       <c r="H4" s="14"/>
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="82"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="105"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="75" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="126"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="81"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="104"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60">
+      <c r="A6" s="63">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -2818,14 +2818,14 @@
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="63" t="s">
+      <c r="L6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="64"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="24"/>
@@ -2836,84 +2836,84 @@
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="66"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60">
+      <c r="A8" s="63">
         <v>0.5</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="63" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="64"/>
+      <c r="M8" s="92"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="66"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="93"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60">
+      <c r="A10" s="63">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="63" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="64"/>
+      <c r="M10" s="92"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="93"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96">
+      <c r="A12" s="75">
         <v>0.58333333333333304</v>
       </c>
       <c r="B12" s="5"/>
@@ -2931,7 +2931,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -2947,7 +2947,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60">
+      <c r="A14" s="63">
         <v>0.625</v>
       </c>
       <c r="B14" s="13"/>
@@ -2960,14 +2960,14 @@
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="127" t="s">
+      <c r="L14" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="48"/>
+      <c r="M14" s="51"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -2978,12 +2978,12 @@
       <c r="I15" s="11"/>
       <c r="J15" s="17"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="129"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60">
+      <c r="A16" s="63">
         <v>0.66666666666666596</v>
       </c>
       <c r="B16" s="13"/>
@@ -2996,18 +2996,18 @@
       <c r="I16" s="14"/>
       <c r="J16" s="16"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="50"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="53"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="88"/>
+      <c r="E17" s="77"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
@@ -3019,13 +3019,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60">
+      <c r="A18" s="63">
         <v>0.70833333333333304</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="89"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -3037,19 +3037,19 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="88"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="63" t="s">
+      <c r="H19" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="88"/>
+      <c r="I19" s="77"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="17"/>
@@ -3057,17 +3057,17 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="96">
+      <c r="A20" s="75">
         <v>0.75</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="89"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="89"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="79"/>
       <c r="J20" s="16"/>
       <c r="K20" s="14"/>
       <c r="L20" s="16"/>
@@ -3075,17 +3075,17 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="76"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="24"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="17"/>
@@ -3093,17 +3093,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="60">
+      <c r="A22" s="63">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="78"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="14"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="60"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="16"/>
@@ -3111,19 +3111,19 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="63" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="76"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="11"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="88"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="17"/>
       <c r="K23" s="11"/>
       <c r="L23" s="17"/>
@@ -3131,70 +3131,70 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="60">
+      <c r="A24" s="63">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="78"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="16"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="89"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79"/>
       <c r="J24" s="16"/>
       <c r="K24" s="14"/>
       <c r="L24" s="16"/>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="47" t="s">
+      <c r="A25" s="62"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="44"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="47" t="s">
+      <c r="H25" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="44"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="17"/>
       <c r="K25" s="11"/>
       <c r="L25" s="17"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="96">
+      <c r="A26" s="75">
         <v>0.875</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="88"/>
       <c r="F26" s="16"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="85"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="88"/>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="97"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="41"/>
       <c r="C27" s="40"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
       <c r="F27" s="22"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="87"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="91"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="22"/>
@@ -3202,13 +3202,23 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="L14:M16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E27"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="H25:I27"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A24:A25"/>
@@ -3225,17 +3235,13 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="H25:I27"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E27"/>
-    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L14:M16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="L8:M9"/>
     <mergeCell ref="L6:M7"/>
     <mergeCell ref="B2:C3"/>
@@ -3244,13 +3250,7 @@
     <mergeCell ref="L2:M3"/>
     <mergeCell ref="L4:M5"/>
     <mergeCell ref="J8:K9"/>
-    <mergeCell ref="J10:K11"/>
     <mergeCell ref="D8:E9"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="H10:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.78125" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3285,44 +3285,44 @@
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="61" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="61" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="62"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51">
+      <c r="A2" s="54">
         <v>0.58333333333333304</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="16"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="44"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="16"/>
       <c r="I2" s="14"/>
       <c r="J2" s="16"/>
@@ -3332,13 +3332,13 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="11"/>
@@ -3348,17 +3348,17 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+      <c r="A4" s="54">
         <v>0.625</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="104"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="16"/>
       <c r="I4" s="14"/>
       <c r="J4" s="16"/>
@@ -3368,13 +3368,13 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="106"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="46"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="17"/>
       <c r="I5" s="11"/>
       <c r="J5" s="17"/>
@@ -3384,19 +3384,19 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="54">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
@@ -3406,13 +3406,13 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="46"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
       <c r="J7" s="11"/>
@@ -3422,19 +3422,19 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="A8" s="54">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="1"/>
       <c r="I8" s="19"/>
       <c r="J8" s="1"/>
@@ -3444,13 +3444,13 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="46"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="17"/>
@@ -3460,19 +3460,19 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107">
+      <c r="A10" s="114">
         <v>0.75</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="101"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16"/>
@@ -3482,13 +3482,13 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="46"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="11"/>
@@ -3498,19 +3498,19 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
+      <c r="A12" s="54">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="101"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="14"/>
       <c r="I12" s="19"/>
       <c r="J12" s="14"/>
@@ -3520,13 +3520,13 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="46"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="17"/>
@@ -3536,11 +3536,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="54">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="16"/>
@@ -3554,7 +3554,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="7"/>
       <c r="C15" s="21"/>
       <c r="D15" s="8"/>
@@ -3588,6 +3588,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="F12:G13"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
@@ -3601,17 +3612,6 @@
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="F10:G11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3653,34 +3653,34 @@
       <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="61" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="61" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="62"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51">
+      <c r="A2" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="14"/>
@@ -3698,17 +3698,17 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
       <c r="E3" s="11"/>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="76"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
       <c r="L3" s="17"/>
@@ -3716,7 +3716,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+      <c r="A4" s="54">
         <v>0.70833333333333304</v>
       </c>
       <c r="B4" s="14"/>
@@ -3725,8 +3725,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="16"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="78"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="16"/>
@@ -3734,17 +3734,17 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="17"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="76"/>
+      <c r="I5" s="65"/>
       <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="17"/>
@@ -3752,7 +3752,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="124">
+      <c r="A6" s="116">
         <v>0.75</v>
       </c>
       <c r="B6" s="1"/>
@@ -3761,8 +3761,8 @@
       <c r="E6" s="14"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="78"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
@@ -3770,17 +3770,17 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="124"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="1"/>
       <c r="C7" s="25"/>
       <c r="D7" s="1"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="76"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="24"/>
@@ -3788,39 +3788,39 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="115">
+      <c r="A8" s="121">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="111"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="117"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="116"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="113"/>
+      <c r="A9" s="122"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="119"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3835,37 +3835,37 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3881,17 +3881,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I6"/>
     <mergeCell ref="L8:M9"/>
     <mergeCell ref="J8:K9"/>
     <mergeCell ref="A8:A9"/>
@@ -3903,6 +3892,17 @@
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8020833333333333" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3934,34 +3934,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="61" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="61" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="62"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58">
+      <c r="A2" s="61">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -3979,7 +3979,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -3990,14 +3990,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
+      <c r="A4" s="63">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -4010,12 +4010,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -4031,7 +4031,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
+      <c r="A6" s="54">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -4049,11 +4049,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -4067,11 +4067,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
+      <c r="A8" s="54">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -4085,7 +4085,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="10"/>
       <c r="C9" s="42"/>
       <c r="D9" s="11"/>
@@ -4101,7 +4101,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="A10" s="54">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -4119,7 +4119,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -4135,7 +4135,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
+      <c r="A12" s="54">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -4153,7 +4153,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -4169,7 +4169,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
+      <c r="A14" s="54">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -4187,7 +4187,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -4203,7 +4203,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
+      <c r="A16" s="54">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -4221,7 +4221,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -4237,13 +4237,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
+      <c r="A18" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -4255,11 +4255,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -4271,7 +4271,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51">
+      <c r="A20" s="54">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -4289,7 +4289,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -4305,7 +4305,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51">
+      <c r="A22" s="54">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -4323,7 +4323,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -4339,7 +4339,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51">
+      <c r="A24" s="54">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -4357,7 +4357,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -4373,7 +4373,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51">
+      <c r="A26" s="54">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -4391,7 +4391,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -4408,6 +4408,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
@@ -4417,19 +4430,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/images/stundenplaene/Stundenpläne_aktuell.xlsx
+++ b/images/stundenplaene/Stundenpläne_aktuell.xlsx
@@ -4,7 +4,9 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12315" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Wetzikon" sheetId="1" r:id="rId1"/>
@@ -748,65 +750,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -820,17 +834,68 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,63 +906,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -913,9 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -934,77 +939,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,6 +1314,8 @@
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3:M4"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1323,34 +1327,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="59">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -1368,7 +1372,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1379,14 +1383,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="A4" s="61">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -1399,12 +1403,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -1420,7 +1424,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="52">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -1438,11 +1442,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -1456,11 +1460,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -1474,7 +1478,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="10"/>
       <c r="C9" s="42"/>
       <c r="D9" s="11"/>
@@ -1490,7 +1494,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="52">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -1508,7 +1512,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -1524,7 +1528,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="52">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -1542,7 +1546,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -1558,7 +1562,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="52">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -1576,7 +1580,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -1592,7 +1596,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+      <c r="A16" s="52">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -1610,7 +1614,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -1626,13 +1630,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="52">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -1644,11 +1648,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -1660,7 +1664,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="A20" s="52">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -1678,7 +1682,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -1694,7 +1698,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
+      <c r="A22" s="52">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -1712,7 +1716,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -1728,7 +1732,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+      <c r="A24" s="52">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -1746,7 +1750,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -1762,7 +1766,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
+      <c r="A26" s="52">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -1780,7 +1784,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -1797,6 +1801,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="L3:M4"/>
     <mergeCell ref="A24:A25"/>
@@ -1813,12 +1823,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1836,9 +1840,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1850,34 +1856,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="59">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -1895,7 +1901,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1906,14 +1912,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="A4" s="61">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -1926,12 +1932,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -1947,7 +1953,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="52">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -1965,11 +1971,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -1983,11 +1989,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -2001,7 +2007,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="10"/>
       <c r="C9" s="42"/>
       <c r="D9" s="11"/>
@@ -2017,7 +2023,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="52">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -2035,7 +2041,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -2051,7 +2057,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="52">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -2069,7 +2075,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -2085,7 +2091,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="52">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -2103,7 +2109,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -2119,7 +2125,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+      <c r="A16" s="52">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -2137,7 +2143,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -2153,13 +2159,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="52">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -2171,11 +2177,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -2187,7 +2193,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="A20" s="52">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -2205,7 +2211,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -2221,7 +2227,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
+      <c r="A22" s="52">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -2239,7 +2245,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -2255,7 +2261,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+      <c r="A24" s="52">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -2273,7 +2279,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -2289,7 +2295,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
+      <c r="A26" s="52">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -2307,7 +2313,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -2324,19 +2330,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
@@ -2346,6 +2339,19 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2366,6 +2372,8 @@
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2379,34 +2387,34 @@
       <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="A2" s="52">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="13"/>
@@ -2424,7 +2432,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
@@ -2440,11 +2448,11 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="52">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
       <c r="F4" s="16"/>
@@ -2458,9 +2466,9 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
       <c r="F5" s="17"/>
@@ -2474,11 +2482,11 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="52">
         <v>0.75</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -2492,9 +2500,9 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -2508,11 +2516,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="52">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
       <c r="F8" s="16"/>
@@ -2526,9 +2534,9 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="17"/>
@@ -2542,11 +2550,11 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="52">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="16"/>
@@ -2560,17 +2568,17 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="65"/>
+      <c r="I11" s="69"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="17"/>
@@ -2578,17 +2586,17 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="52">
         <v>0.875</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="16"/>
@@ -2596,9 +2604,9 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
       <c r="F13" s="17"/>
@@ -2612,7 +2620,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="52">
         <v>0.91666666666666663</v>
       </c>
       <c r="B14" s="14"/>
@@ -2630,7 +2638,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="22"/>
@@ -2647,17 +2655,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
     <mergeCell ref="H11:I12"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -2666,6 +2663,17 @@
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2683,8 +2691,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,40 +2718,40 @@
       <c r="A1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="63">
+      <c r="A2" s="61">
         <v>0.375</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="95"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="20"/>
       <c r="E2" s="4"/>
       <c r="F2" s="20"/>
@@ -2748,14 +2760,14 @@
       <c r="I2" s="23"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
       <c r="D3" s="24"/>
       <c r="E3" s="1"/>
       <c r="F3" s="17"/>
@@ -2764,52 +2776,52 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="104"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="105"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="A4" s="61">
         <v>0.41666666666666669</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="38"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="81"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="16"/>
       <c r="G4" s="19"/>
       <c r="H4" s="14"/>
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="105"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="106"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="100" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="83"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11"/>
       <c r="I5" s="18"/>
       <c r="J5" s="43"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="104"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="105"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63">
+      <c r="A6" s="61">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -2818,14 +2830,14 @@
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="64" t="s">
+      <c r="L6" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="92"/>
+      <c r="M6" s="83"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="24"/>
@@ -2836,84 +2848,84 @@
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="93"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="84"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63">
+      <c r="A8" s="61">
         <v>0.5</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="64" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="92"/>
+      <c r="M8" s="83"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="93"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="84"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63">
+      <c r="A10" s="61">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="64" t="s">
+      <c r="B10" s="91"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="92"/>
+      <c r="M10" s="83"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="93"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="84"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75">
+      <c r="A12" s="89">
         <v>0.58333333333333304</v>
       </c>
       <c r="B12" s="5"/>
@@ -2931,7 +2943,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -2947,7 +2959,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63">
+      <c r="A14" s="61">
         <v>0.625</v>
       </c>
       <c r="B14" s="13"/>
@@ -2960,14 +2972,14 @@
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="72" t="s">
+      <c r="L14" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="51"/>
+      <c r="M14" s="49"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -2978,12 +2990,12 @@
       <c r="I15" s="11"/>
       <c r="J15" s="17"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="74"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="95"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63">
+      <c r="A16" s="61">
         <v>0.66666666666666596</v>
       </c>
       <c r="B16" s="13"/>
@@ -2996,18 +3008,18 @@
       <c r="I16" s="14"/>
       <c r="J16" s="16"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="53"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="77"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
@@ -3019,13 +3031,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63">
+      <c r="A18" s="61">
         <v>0.70833333333333304</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -3037,19 +3049,19 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="77"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="77"/>
+      <c r="I19" s="76"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="17"/>
@@ -3057,17 +3069,17 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75">
+      <c r="A20" s="89">
         <v>0.75</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="79"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="78"/>
       <c r="J20" s="16"/>
       <c r="K20" s="14"/>
       <c r="L20" s="16"/>
@@ -3075,17 +3087,17 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="65"/>
+      <c r="E21" s="69"/>
       <c r="F21" s="24"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="17"/>
@@ -3093,17 +3105,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="63">
+      <c r="A22" s="61">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="14"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="60"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="16"/>
@@ -3111,19 +3123,19 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="64" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="65"/>
+      <c r="E23" s="69"/>
       <c r="F23" s="11"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="77"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="17"/>
       <c r="K23" s="11"/>
       <c r="L23" s="17"/>
@@ -3131,70 +3143,70 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="63">
+      <c r="A24" s="61">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
       <c r="F24" s="16"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="78"/>
       <c r="J24" s="16"/>
       <c r="K24" s="14"/>
       <c r="L24" s="16"/>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="50" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="47"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="47"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="17"/>
       <c r="K25" s="11"/>
       <c r="L25" s="17"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="75">
+      <c r="A26" s="89">
         <v>0.875</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="88"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="16"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="88"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="80"/>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="76"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="41"/>
       <c r="C27" s="40"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="91"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="82"/>
       <c r="F27" s="22"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="91"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="82"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="22"/>
@@ -3202,23 +3214,21 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E27"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="H25:I27"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A24:A25"/>
@@ -3235,22 +3245,24 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="H25:I27"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E27"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="D10:E11"/>
     <mergeCell ref="L14:M16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="D17:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.78125" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3272,6 +3284,8 @@
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3285,44 +3299,44 @@
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="A2" s="52">
         <v>0.58333333333333304</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="16"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="47"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="16"/>
       <c r="I2" s="14"/>
       <c r="J2" s="16"/>
@@ -3332,13 +3346,13 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="49"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="11"/>
@@ -3348,17 +3362,17 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="52">
         <v>0.625</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="16"/>
       <c r="I4" s="14"/>
       <c r="J4" s="16"/>
@@ -3368,13 +3382,13 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="49"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="17"/>
       <c r="I5" s="11"/>
       <c r="J5" s="17"/>
@@ -3384,19 +3398,19 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="52">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="47"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="47"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
@@ -3406,13 +3420,13 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="49"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
       <c r="J7" s="11"/>
@@ -3422,19 +3436,19 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="52">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="1"/>
       <c r="I8" s="19"/>
       <c r="J8" s="1"/>
@@ -3444,13 +3458,13 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="49"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="17"/>
@@ -3460,19 +3474,19 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114">
+      <c r="A10" s="111">
         <v>0.75</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="109"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="47"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16"/>
@@ -3482,13 +3496,13 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="49"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="11"/>
@@ -3498,19 +3512,19 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="52">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="109"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="47"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="14"/>
       <c r="I12" s="19"/>
       <c r="J12" s="14"/>
@@ -3520,13 +3534,13 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="49"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="17"/>
@@ -3536,11 +3550,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="52">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="16"/>
@@ -3554,7 +3568,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="7"/>
       <c r="C15" s="21"/>
       <c r="D15" s="8"/>
@@ -3588,17 +3602,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="F12:G13"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
@@ -3612,6 +3615,17 @@
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="F10:G11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3632,6 +3646,8 @@
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3653,34 +3669,34 @@
       <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="A2" s="52">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="14"/>
@@ -3698,17 +3714,17 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
       <c r="E3" s="11"/>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="65"/>
+      <c r="I3" s="69"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
       <c r="L3" s="17"/>
@@ -3716,7 +3732,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="52">
         <v>0.70833333333333304</v>
       </c>
       <c r="B4" s="14"/>
@@ -3725,8 +3741,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="16"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="16"/>
@@ -3734,17 +3750,17 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="17"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="65"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="17"/>
@@ -3752,7 +3768,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116">
+      <c r="A6" s="128">
         <v>0.75</v>
       </c>
       <c r="B6" s="1"/>
@@ -3761,8 +3777,8 @@
       <c r="E6" s="14"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
@@ -3770,17 +3786,17 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="1"/>
       <c r="C7" s="25"/>
       <c r="D7" s="1"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="65"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="24"/>
@@ -3788,39 +3804,39 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121">
+      <c r="A8" s="119">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="117"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="115"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="122"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="119"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="117"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3835,37 +3851,37 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3881,6 +3897,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I6"/>
     <mergeCell ref="L8:M9"/>
     <mergeCell ref="J8:K9"/>
     <mergeCell ref="A8:A9"/>
@@ -3892,17 +3919,6 @@
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8020833333333333" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3923,6 +3939,8 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3934,34 +3952,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="59">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -3979,7 +3997,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -3990,14 +4008,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="A4" s="61">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -4010,12 +4028,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -4031,7 +4049,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="52">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -4049,11 +4067,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -4067,11 +4085,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -4085,7 +4103,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="10"/>
       <c r="C9" s="42"/>
       <c r="D9" s="11"/>
@@ -4101,7 +4119,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="52">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -4119,7 +4137,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -4135,7 +4153,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="52">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -4153,7 +4171,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -4169,7 +4187,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="52">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -4187,7 +4205,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -4203,7 +4221,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+      <c r="A16" s="52">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -4221,7 +4239,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -4237,13 +4255,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="52">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -4255,11 +4273,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -4271,7 +4289,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="A20" s="52">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -4289,7 +4307,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -4305,7 +4323,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
+      <c r="A22" s="52">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -4323,7 +4341,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -4339,7 +4357,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+      <c r="A24" s="52">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -4357,7 +4375,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -4373,7 +4391,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
+      <c r="A26" s="52">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -4391,7 +4409,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -4408,19 +4426,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
@@ -4430,7 +4435,21 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/images/stundenplaene/Stundenpläne_aktuell.xlsx
+++ b/images/stundenplaene/Stundenpläne_aktuell.xlsx
@@ -6,7 +6,7 @@
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580" activeTab="3"/>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="6"/>
-    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12315" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wetzikon" sheetId="1" r:id="rId1"/>
@@ -750,6 +750,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -804,11 +810,17 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -822,81 +834,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,38 +939,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -945,6 +948,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,14 +963,11 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1001,12 +1007,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1315,7 +1315,7 @@
       <selection activeCell="L3" sqref="L3:M4"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1327,34 +1327,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+      <c r="A2" s="61">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -1372,7 +1372,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1383,14 +1383,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="63">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -1403,12 +1403,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -1424,7 +1424,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="54">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -1442,11 +1442,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -1460,11 +1460,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="54">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -1478,7 +1478,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="10"/>
       <c r="C9" s="42"/>
       <c r="D9" s="11"/>
@@ -1494,7 +1494,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="A10" s="54">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -1512,7 +1512,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -1528,7 +1528,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="54">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -1546,7 +1546,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -1562,7 +1562,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14" s="54">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -1580,7 +1580,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -1596,7 +1596,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
+      <c r="A16" s="54">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -1614,7 +1614,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -1630,13 +1630,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="A18" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -1648,11 +1648,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -1664,7 +1664,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
+      <c r="A20" s="54">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -1682,7 +1682,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -1698,7 +1698,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
+      <c r="A22" s="54">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -1716,7 +1716,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -1732,7 +1732,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
+      <c r="A24" s="54">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -1750,7 +1750,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -1766,7 +1766,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="A26" s="54">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -1784,7 +1784,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -1801,12 +1801,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="L3:M4"/>
     <mergeCell ref="A24:A25"/>
@@ -1823,6 +1817,12 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1844,7 +1844,7 @@
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1856,34 +1856,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+      <c r="A2" s="61">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -1901,7 +1901,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1912,14 +1912,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="63">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -1932,12 +1932,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -1953,7 +1953,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="54">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -1971,11 +1971,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -1989,11 +1989,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="54">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -2007,7 +2007,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="10"/>
       <c r="C9" s="42"/>
       <c r="D9" s="11"/>
@@ -2023,7 +2023,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="A10" s="54">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -2041,7 +2041,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -2057,7 +2057,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="54">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -2075,7 +2075,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -2091,7 +2091,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14" s="54">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -2109,7 +2109,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -2125,7 +2125,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
+      <c r="A16" s="54">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -2143,7 +2143,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -2159,13 +2159,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="A18" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -2177,11 +2177,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -2193,7 +2193,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
+      <c r="A20" s="54">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -2211,7 +2211,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -2227,7 +2227,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
+      <c r="A22" s="54">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -2245,7 +2245,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -2261,7 +2261,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
+      <c r="A24" s="54">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -2279,7 +2279,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -2295,7 +2295,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="A26" s="54">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -2313,7 +2313,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -2330,6 +2330,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
@@ -2339,19 +2352,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2373,7 +2373,9 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2387,34 +2389,34 @@
       <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
+      <c r="A2" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="13"/>
@@ -2432,7 +2434,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
@@ -2448,11 +2450,11 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="A4" s="54">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
       <c r="F4" s="16"/>
@@ -2466,9 +2468,9 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
       <c r="F5" s="17"/>
@@ -2482,11 +2484,11 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="54">
         <v>0.75</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -2500,9 +2502,9 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -2516,11 +2518,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="54">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
       <c r="F8" s="16"/>
@@ -2534,9 +2536,9 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="17"/>
@@ -2550,11 +2552,11 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="A10" s="54">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="16"/>
@@ -2568,17 +2570,17 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="69"/>
+      <c r="I11" s="65"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="17"/>
@@ -2586,17 +2588,17 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="54">
         <v>0.875</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="16"/>
@@ -2604,9 +2606,9 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
       <c r="F13" s="17"/>
@@ -2620,7 +2622,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14" s="54">
         <v>0.91666666666666663</v>
       </c>
       <c r="B14" s="14"/>
@@ -2638,7 +2640,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="22"/>
@@ -2655,6 +2657,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
     <mergeCell ref="H11:I12"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -2663,17 +2676,6 @@
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2695,7 +2697,7 @@
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
@@ -2718,40 +2720,40 @@
       <c r="A1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="63">
         <v>0.375</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="97"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="20"/>
       <c r="E2" s="4"/>
       <c r="F2" s="20"/>
@@ -2760,14 +2762,14 @@
       <c r="I2" s="23"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="24"/>
       <c r="E3" s="1"/>
       <c r="F3" s="17"/>
@@ -2776,52 +2778,52 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="105"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="63">
         <v>0.41666666666666669</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="38"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="73"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="16"/>
       <c r="G4" s="19"/>
       <c r="H4" s="14"/>
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="106"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="101" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11"/>
       <c r="I5" s="18"/>
       <c r="J5" s="43"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="105"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="87"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61">
+      <c r="A6" s="63">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="71"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -2830,14 +2832,14 @@
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="68" t="s">
+      <c r="L6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="72"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="24"/>
@@ -2848,84 +2850,84 @@
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="84"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61">
+      <c r="A8" s="63">
         <v>0.5</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="68" t="s">
+      <c r="B8" s="94"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="83"/>
+      <c r="M8" s="72"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="84"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
+      <c r="A10" s="63">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="68" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="83"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="84"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89">
+      <c r="A12" s="90">
         <v>0.58333333333333304</v>
       </c>
       <c r="B12" s="5"/>
@@ -2943,7 +2945,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -2959,7 +2961,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61">
+      <c r="A14" s="63">
         <v>0.625</v>
       </c>
       <c r="B14" s="13"/>
@@ -2972,14 +2974,14 @@
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="93" t="s">
+      <c r="L14" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="49"/>
+      <c r="M14" s="51"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -2990,12 +2992,12 @@
       <c r="I15" s="11"/>
       <c r="J15" s="17"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="95"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61">
+      <c r="A16" s="63">
         <v>0.66666666666666596</v>
       </c>
       <c r="B16" s="13"/>
@@ -3008,18 +3010,18 @@
       <c r="I16" s="14"/>
       <c r="J16" s="16"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="53"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="76"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
@@ -3031,13 +3033,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61">
+      <c r="A18" s="63">
         <v>0.70833333333333304</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -3049,19 +3051,19 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="76"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="76"/>
+      <c r="I19" s="92"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="17"/>
@@ -3069,17 +3071,17 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89">
+      <c r="A20" s="90">
         <v>0.75</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="78"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="93"/>
       <c r="J20" s="16"/>
       <c r="K20" s="14"/>
       <c r="L20" s="16"/>
@@ -3087,17 +3089,17 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="69"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="24"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="17"/>
@@ -3105,17 +3107,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="61">
+      <c r="A22" s="63">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="14"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="60"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="16"/>
@@ -3123,19 +3125,19 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="68" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="69"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="11"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="76"/>
+      <c r="I23" s="92"/>
       <c r="J23" s="17"/>
       <c r="K23" s="11"/>
       <c r="L23" s="17"/>
@@ -3143,70 +3145,70 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="61">
+      <c r="A24" s="63">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="16"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="78"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="93"/>
       <c r="J24" s="16"/>
       <c r="K24" s="14"/>
       <c r="L24" s="16"/>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="48" t="s">
+      <c r="A25" s="62"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="48" t="s">
+      <c r="H25" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="45"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="17"/>
       <c r="K25" s="11"/>
       <c r="L25" s="17"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="89">
+      <c r="A26" s="90">
         <v>0.875</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="100"/>
       <c r="F26" s="16"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="80"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="100"/>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="90"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="41"/>
       <c r="C27" s="40"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
       <c r="F27" s="22"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="82"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="103"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="22"/>
@@ -3214,21 +3216,24 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="L14:M16"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="H25:I27"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E27"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A24:A25"/>
@@ -3245,24 +3250,21 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="B10:C11"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="H25:I27"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E27"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="L14:M16"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="D8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.78125" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3285,7 +3287,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3299,44 +3301,44 @@
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
+      <c r="A2" s="54">
         <v>0.58333333333333304</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="16"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="45"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="16"/>
       <c r="I2" s="14"/>
       <c r="J2" s="16"/>
@@ -3346,13 +3348,13 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="11"/>
@@ -3362,17 +3364,17 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="A4" s="54">
         <v>0.625</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="45"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="16"/>
       <c r="I4" s="14"/>
       <c r="J4" s="16"/>
@@ -3382,13 +3384,13 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="47"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="17"/>
       <c r="I5" s="11"/>
       <c r="J5" s="17"/>
@@ -3398,19 +3400,19 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="54">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
@@ -3420,13 +3422,13 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="47"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
       <c r="J7" s="11"/>
@@ -3436,19 +3438,19 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="54">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="45"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="1"/>
       <c r="I8" s="19"/>
       <c r="J8" s="1"/>
@@ -3458,13 +3460,13 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="47"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="17"/>
@@ -3474,19 +3476,19 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="111">
+      <c r="A10" s="114">
         <v>0.75</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="108"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16"/>
@@ -3496,13 +3498,13 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="47"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="11"/>
@@ -3512,19 +3514,19 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="54">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="108"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="14"/>
       <c r="I12" s="19"/>
       <c r="J12" s="14"/>
@@ -3534,13 +3536,13 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="47"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="17"/>
@@ -3550,11 +3552,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14" s="54">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="16"/>
@@ -3568,7 +3570,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="7"/>
       <c r="C15" s="21"/>
       <c r="D15" s="8"/>
@@ -3602,6 +3604,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="F12:G13"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
@@ -3615,17 +3628,6 @@
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="F10:G11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3647,7 +3649,7 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3669,34 +3671,34 @@
       <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
+      <c r="A2" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="14"/>
@@ -3714,17 +3716,17 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
       <c r="E3" s="11"/>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="69"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
       <c r="L3" s="17"/>
@@ -3732,7 +3734,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="A4" s="54">
         <v>0.70833333333333304</v>
       </c>
       <c r="B4" s="14"/>
@@ -3741,8 +3743,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="16"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="16"/>
@@ -3750,17 +3752,17 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="17"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="69"/>
+      <c r="I5" s="65"/>
       <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="17"/>
@@ -3768,7 +3770,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="128">
+      <c r="A6" s="116">
         <v>0.75</v>
       </c>
       <c r="B6" s="1"/>
@@ -3777,8 +3779,8 @@
       <c r="E6" s="14"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
@@ -3786,17 +3788,17 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="128"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="1"/>
       <c r="C7" s="25"/>
       <c r="D7" s="1"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="69"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="24"/>
@@ -3804,39 +3806,39 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119">
+      <c r="A8" s="121">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="115"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="117"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="117"/>
+      <c r="A9" s="122"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="119"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3851,37 +3853,37 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
+      <c r="A11" s="123"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3897,17 +3899,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I6"/>
     <mergeCell ref="L8:M9"/>
     <mergeCell ref="J8:K9"/>
     <mergeCell ref="A8:A9"/>
@@ -3919,6 +3910,17 @@
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8020833333333333" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3952,34 +3954,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+      <c r="A2" s="61">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -3997,7 +3999,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -4008,14 +4010,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="63">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -4028,12 +4030,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -4049,7 +4051,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="54">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -4067,11 +4069,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -4085,11 +4087,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="54">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -4103,7 +4105,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="10"/>
       <c r="C9" s="42"/>
       <c r="D9" s="11"/>
@@ -4119,7 +4121,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="A10" s="54">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -4137,7 +4139,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -4153,7 +4155,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="54">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -4171,7 +4173,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -4187,7 +4189,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14" s="54">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -4205,7 +4207,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -4221,7 +4223,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
+      <c r="A16" s="54">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -4239,7 +4241,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -4255,13 +4257,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="A18" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -4273,11 +4275,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -4289,7 +4291,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
+      <c r="A20" s="54">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -4307,7 +4309,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -4323,7 +4325,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
+      <c r="A22" s="54">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -4341,7 +4343,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -4357,7 +4359,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
+      <c r="A24" s="54">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -4375,7 +4377,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -4391,7 +4393,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="A26" s="54">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -4409,7 +4411,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -4426,6 +4428,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
@@ -4435,19 +4450,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/images/stundenplaene/Stundenpläne_aktuell.xlsx
+++ b/images/stundenplaene/Stundenpläne_aktuell.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580" activeTab="2"/>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="6"/>
-    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12315" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wetzikon" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>Montag</t>
   </si>
@@ -142,10 +142,6 @@
 (10-15 jährig) *</t>
   </si>
   <si>
-    <t>Kung Fu/Wu Shu   
-Taiji / Qi Gong *</t>
-  </si>
-  <si>
     <t>Kung Fu/Wu Shu Jugendliche 
 (11-18 jährig) *</t>
   </si>
@@ -175,6 +171,18 @@
   </si>
   <si>
     <t>Freies Training</t>
+  </si>
+  <si>
+    <t>Taiji / Qi Gong *</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Kinder /Jugendliche</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Kinder</t>
+  </si>
+  <si>
+    <t>Kung Fu/Wu Shu Jugendliche /Fortgeschrittene</t>
   </si>
 </sst>
 </file>
@@ -750,65 +758,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -822,27 +842,78 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -858,15 +929,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -885,128 +947,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,7 +1320,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M4"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="2"/>
@@ -1327,34 +1335,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="59">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -1372,7 +1380,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1383,14 +1391,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="A4" s="61">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -1403,12 +1411,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -1424,7 +1432,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="52">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -1442,11 +1450,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -1460,11 +1468,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -1478,7 +1486,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="10"/>
       <c r="C9" s="42"/>
       <c r="D9" s="11"/>
@@ -1494,7 +1502,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="52">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -1512,7 +1520,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -1528,7 +1536,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="52">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -1546,7 +1554,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -1562,7 +1570,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="52">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -1580,7 +1588,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -1596,7 +1604,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+      <c r="A16" s="52">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -1614,7 +1622,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -1630,13 +1638,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="52">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -1648,11 +1656,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -1664,7 +1672,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="A20" s="52">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -1682,7 +1690,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -1698,7 +1706,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
+      <c r="A22" s="52">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -1716,7 +1724,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -1732,7 +1740,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+      <c r="A24" s="52">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -1750,7 +1758,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -1766,7 +1774,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
+      <c r="A26" s="52">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -1784,7 +1792,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -1801,6 +1809,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="L3:M4"/>
     <mergeCell ref="A24:A25"/>
@@ -1813,6 +1827,499 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;L                 
+&amp;G&amp;C&amp;"-,Fett"&amp;8
+&amp;18
+                                                            Stundenplan                                           Wetzikon&amp;R&amp;"-,Fett"&amp;14&amp;KFF0000!!! NEU: Bahnhofstrasse 256 (ASW Saal, Kreuzackerstrasse 1) !!!</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="13" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="63"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="61">
+        <v>0.375</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52">
+        <v>0.625</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="45"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="45"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="53"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:E19"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -1830,536 +2337,7 @@
     <oddHeader>&amp;L                 
 &amp;G&amp;C&amp;"-,Fett"&amp;8
 &amp;18
-                                                            Stundenplan                                           Wetzikon&amp;R&amp;"-,Fett"&amp;14&amp;KFF0000!!! NEU: Bahnhofstrasse 256 (ASW Saal, Kreuzackerstrasse 1) !!!</oddHeader>
-  </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="2"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="13" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
-        <v>0.375</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
-        <v>0.625</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
-        <v>0.75</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;L                 
-&amp;G&amp;C&amp;"-,Fett"&amp;8
-&amp;18
-                                                            Stundenplan             Grüt &amp;12(Wolfrichtischule, Wolfrichtistr. 14)</oddHeader>
+                                                            Stundenplan             Grüt &amp;12(Wolfrichtischule, Wolfrichtistr. 14, Singsaal)</oddHeader>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -2369,11 +2347,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -2389,34 +2367,34 @@
       <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="A2" s="52">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="13"/>
@@ -2434,7 +2412,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
@@ -2450,11 +2428,11 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="52">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
       <c r="F4" s="16"/>
@@ -2468,9 +2446,9 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
       <c r="F5" s="17"/>
@@ -2484,11 +2462,11 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="52">
         <v>0.75</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -2502,9 +2480,9 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -2518,11 +2496,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="52">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
       <c r="F8" s="16"/>
@@ -2536,9 +2514,9 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="17"/>
@@ -2552,11 +2530,11 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="52">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="16"/>
@@ -2570,17 +2548,17 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="65"/>
+      <c r="I11" s="69"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="17"/>
@@ -2588,17 +2566,17 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="52">
         <v>0.875</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="16"/>
@@ -2606,9 +2584,9 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
       <c r="F13" s="17"/>
@@ -2622,7 +2600,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="52">
         <v>0.91666666666666663</v>
       </c>
       <c r="B14" s="14"/>
@@ -2640,7 +2618,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="22"/>
@@ -2657,17 +2635,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
     <mergeCell ref="H11:I12"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -2676,6 +2643,17 @@
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2693,7 +2671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
@@ -2720,40 +2698,40 @@
       <c r="A1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="63">
+      <c r="A2" s="61">
         <v>0.375</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="20"/>
       <c r="E2" s="4"/>
       <c r="F2" s="20"/>
@@ -2762,14 +2740,14 @@
       <c r="I2" s="23"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
       <c r="D3" s="24"/>
       <c r="E3" s="1"/>
       <c r="F3" s="17"/>
@@ -2778,52 +2756,52 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="87"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="105"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="A4" s="61">
         <v>0.41666666666666669</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="38"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="16"/>
       <c r="G4" s="19"/>
       <c r="H4" s="14"/>
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="88"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="106"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="83" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11"/>
       <c r="I5" s="18"/>
       <c r="J5" s="43"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="87"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="105"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63">
+      <c r="A6" s="61">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -2832,14 +2810,14 @@
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="64" t="s">
+      <c r="L6" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="72"/>
+      <c r="M6" s="75"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="24"/>
@@ -2851,83 +2829,83 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
+      <c r="M7" s="76"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63">
+      <c r="A8" s="61">
         <v>0.5</v>
       </c>
       <c r="B8" s="94"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="64" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="72"/>
+      <c r="M8" s="75"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="95"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="82"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
       <c r="L9" s="73"/>
-      <c r="M9" s="74"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63">
+      <c r="A10" s="61">
         <v>0.54166666666666696</v>
       </c>
       <c r="B10" s="94"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="64" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="72"/>
+      <c r="M10" s="75"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="95"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
       <c r="L11" s="73"/>
-      <c r="M11" s="74"/>
+      <c r="M11" s="76"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90">
+      <c r="A12" s="92">
         <v>0.58333333333333304</v>
       </c>
       <c r="B12" s="5"/>
@@ -2945,7 +2923,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -2961,7 +2939,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63">
+      <c r="A14" s="61">
         <v>0.625</v>
       </c>
       <c r="B14" s="13"/>
@@ -2974,14 +2952,14 @@
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="51"/>
+      <c r="L14" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="49"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -2992,12 +2970,12 @@
       <c r="I15" s="11"/>
       <c r="J15" s="17"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="106"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63">
+      <c r="A16" s="61">
         <v>0.66666666666666596</v>
       </c>
       <c r="B16" s="13"/>
@@ -3010,18 +2988,18 @@
       <c r="I16" s="14"/>
       <c r="J16" s="16"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="53"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="92"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
@@ -3033,13 +3011,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63">
+      <c r="A18" s="61">
         <v>0.70833333333333304</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="73"/>
-      <c r="E18" s="93"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -3051,19 +3029,19 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="92"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="92"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="17"/>
@@ -3071,17 +3049,17 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90">
+      <c r="A20" s="92">
         <v>0.75</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="19"/>
       <c r="D20" s="73"/>
-      <c r="E20" s="93"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
       <c r="H20" s="73"/>
-      <c r="I20" s="93"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="16"/>
       <c r="K20" s="14"/>
       <c r="L20" s="16"/>
@@ -3089,17 +3067,17 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="65"/>
+      <c r="E21" s="69"/>
       <c r="F21" s="24"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="17"/>
@@ -3107,17 +3085,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="63">
+      <c r="A22" s="61">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="14"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="60"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="16"/>
@@ -3125,19 +3103,19 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="64" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="65"/>
+      <c r="E23" s="69"/>
       <c r="F23" s="11"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="92"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="17"/>
       <c r="K23" s="11"/>
       <c r="L23" s="17"/>
@@ -3145,70 +3123,70 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="63">
+      <c r="A24" s="61">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
       <c r="F24" s="16"/>
       <c r="G24" s="19"/>
       <c r="H24" s="73"/>
-      <c r="I24" s="93"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="16"/>
       <c r="K24" s="14"/>
       <c r="L24" s="16"/>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="50" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="47"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="47"/>
+      <c r="I25" s="45"/>
       <c r="J25" s="17"/>
       <c r="K25" s="11"/>
       <c r="L25" s="17"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="90">
+      <c r="A26" s="92">
         <v>0.875</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="100"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="88"/>
       <c r="F26" s="16"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="100"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="88"/>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="91"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="41"/>
       <c r="C27" s="40"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
       <c r="F27" s="22"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="103"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="91"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="22"/>
@@ -3216,24 +3194,21 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="L14:M16"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="H25:I27"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E27"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A24:A25"/>
@@ -3250,21 +3225,24 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="B10:C11"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="H25:I27"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E27"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="L14:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.78125" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3287,7 +3265,9 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="2"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
+      <selection activeCell="B6" sqref="B6:C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3301,44 +3281,44 @@
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="A2" s="52">
         <v>0.58333333333333304</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="16"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="47"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="16"/>
       <c r="I2" s="14"/>
       <c r="J2" s="16"/>
@@ -3348,13 +3328,13 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="49"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="11"/>
@@ -3364,17 +3344,17 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="52">
         <v>0.625</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="16"/>
       <c r="I4" s="14"/>
       <c r="J4" s="16"/>
@@ -3384,13 +3364,13 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="49"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="17"/>
       <c r="I5" s="11"/>
       <c r="J5" s="17"/>
@@ -3400,19 +3380,19 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="52">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="47"/>
+      <c r="B6" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="45"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="47"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
@@ -3422,13 +3402,13 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="49"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
       <c r="J7" s="11"/>
@@ -3438,19 +3418,19 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="52">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="47"/>
+      <c r="B8" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="45"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="47"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="1"/>
       <c r="I8" s="19"/>
       <c r="J8" s="1"/>
@@ -3460,13 +3440,13 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="49"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="17"/>
@@ -3476,19 +3456,19 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114">
+      <c r="A10" s="111">
         <v>0.75</v>
       </c>
-      <c r="B10" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="109"/>
+      <c r="B10" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="108"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="47"/>
+      <c r="F10" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="45"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16"/>
@@ -3498,13 +3478,13 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="49"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="11"/>
@@ -3514,19 +3494,19 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="52">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="109"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="47"/>
+      <c r="F12" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="45"/>
       <c r="H12" s="14"/>
       <c r="I12" s="19"/>
       <c r="J12" s="14"/>
@@ -3536,13 +3516,13 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="49"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="17"/>
@@ -3552,11 +3532,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="52">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="16"/>
@@ -3570,7 +3550,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="7"/>
       <c r="C15" s="21"/>
       <c r="D15" s="8"/>
@@ -3604,17 +3584,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="F12:G13"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
@@ -3628,6 +3597,17 @@
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="F10:G11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3671,34 +3651,34 @@
       <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="A2" s="52">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="14"/>
@@ -3716,17 +3696,17 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
       <c r="E3" s="11"/>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="65"/>
+      <c r="H3" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="69"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
       <c r="L3" s="17"/>
@@ -3734,7 +3714,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="52">
         <v>0.70833333333333304</v>
       </c>
       <c r="B4" s="14"/>
@@ -3743,8 +3723,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="16"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="16"/>
@@ -3752,17 +3732,17 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="17"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="65"/>
+      <c r="H5" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="69"/>
       <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="17"/>
@@ -3770,7 +3750,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116">
+      <c r="A6" s="128">
         <v>0.75</v>
       </c>
       <c r="B6" s="1"/>
@@ -3779,8 +3759,8 @@
       <c r="E6" s="14"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
@@ -3788,17 +3768,17 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="1"/>
       <c r="C7" s="25"/>
       <c r="D7" s="1"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="65"/>
+      <c r="H7" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="69"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="24"/>
@@ -3806,39 +3786,39 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121">
+      <c r="A8" s="119">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="117"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="115"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="122"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="119"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="117"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3853,37 +3833,37 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3899,6 +3879,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I6"/>
     <mergeCell ref="L8:M9"/>
     <mergeCell ref="J8:K9"/>
     <mergeCell ref="A8:A9"/>
@@ -3910,17 +3901,6 @@
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8020833333333333" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3954,34 +3934,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="44" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="I1" s="63"/>
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="44" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="45"/>
+      <c r="M1" s="63"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="59">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -3999,7 +3979,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -4010,14 +3990,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="A4" s="61">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -4030,12 +4010,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -4051,7 +4031,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="52">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -4069,11 +4049,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -4087,11 +4067,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="52">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -4105,7 +4085,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="10"/>
       <c r="C9" s="42"/>
       <c r="D9" s="11"/>
@@ -4121,7 +4101,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="52">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -4139,7 +4119,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -4155,7 +4135,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="52">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -4173,7 +4153,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -4189,7 +4169,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="52">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -4207,7 +4187,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -4223,7 +4203,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+      <c r="A16" s="52">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -4241,7 +4221,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -4257,13 +4237,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="52">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -4275,11 +4255,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -4291,7 +4271,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="A20" s="52">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -4309,7 +4289,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -4325,7 +4305,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
+      <c r="A22" s="52">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -4343,7 +4323,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -4359,7 +4339,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+      <c r="A24" s="52">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -4377,7 +4357,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -4393,7 +4373,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
+      <c r="A26" s="52">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -4411,7 +4391,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -4428,19 +4408,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
@@ -4450,6 +4417,19 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/images/stundenplaene/Stundenpläne_aktuell.xlsx
+++ b/images/stundenplaene/Stundenpläne_aktuell.xlsx
@@ -6,7 +6,7 @@
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580" activeTab="2"/>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="6"/>
-    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12315" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12315" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Wetzikon" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>Montag</t>
   </si>
@@ -184,6 +184,10 @@
   <si>
     <t>Kung Fu/Wu Shu Jugendliche /Fortgeschrittene</t>
   </si>
+  <si>
+    <t>Kung Fu / Taiji 
+(10:00 -11:30)</t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -691,11 +695,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -758,6 +788,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -818,6 +860,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -842,51 +887,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -962,9 +1007,6 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1014,6 +1056,34 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1335,34 +1405,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="67"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+      <c r="A2" s="63">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -1380,7 +1450,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1391,14 +1461,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="65">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -1411,12 +1481,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -1432,7 +1502,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="56">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -1450,11 +1520,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -1468,11 +1538,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="56">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -1486,7 +1556,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="10"/>
       <c r="C9" s="42"/>
       <c r="D9" s="11"/>
@@ -1502,7 +1572,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="A10" s="56">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -1520,7 +1590,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -1536,7 +1606,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="56">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -1554,7 +1624,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -1570,7 +1640,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14" s="56">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -1588,7 +1658,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -1604,7 +1674,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
+      <c r="A16" s="56">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -1622,7 +1692,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -1638,13 +1708,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="A18" s="56">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -1656,11 +1726,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -1672,7 +1742,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
+      <c r="A20" s="56">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -1690,7 +1760,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -1706,7 +1776,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
+      <c r="A22" s="56">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -1724,7 +1794,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -1740,7 +1810,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
+      <c r="A24" s="56">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -1758,7 +1828,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -1774,7 +1844,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="A26" s="56">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -1792,7 +1862,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -1852,7 +1922,7 @@
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -1866,34 +1936,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="67"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+      <c r="A2" s="63">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -1911,7 +1981,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1927,7 +1997,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="65">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -1945,7 +2015,7 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -1961,7 +2031,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="56">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -1979,7 +2049,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="17"/>
@@ -1995,7 +2065,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="56">
         <v>0.45833333333333331</v>
       </c>
       <c r="B8" s="13"/>
@@ -2013,7 +2083,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="5"/>
       <c r="C9" s="18"/>
       <c r="D9" s="11"/>
@@ -2029,7 +2099,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="A10" s="56">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -2047,7 +2117,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -2063,7 +2133,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="56">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -2081,7 +2151,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -2097,7 +2167,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14" s="56">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -2115,7 +2185,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -2131,7 +2201,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
+      <c r="A16" s="56">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -2149,7 +2219,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -2165,13 +2235,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="A18" s="56">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -2183,11 +2253,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -2199,7 +2269,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
+      <c r="A20" s="56">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -2210,16 +2280,16 @@
       <c r="G20" s="25"/>
       <c r="H20" s="24"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="45"/>
+      <c r="K20" s="49"/>
       <c r="L20" s="16"/>
       <c r="M20" s="15"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -2228,52 +2298,52 @@
       <c r="G21" s="1"/>
       <c r="H21" s="24"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="47"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="51"/>
       <c r="L21" s="17"/>
       <c r="M21" s="12"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
+      <c r="A22" s="56">
         <v>0.75</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="45"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="14"/>
       <c r="E22" s="19"/>
       <c r="F22" s="14"/>
       <c r="G22" s="19"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="45"/>
+      <c r="K22" s="49"/>
       <c r="L22" s="16"/>
       <c r="M22" s="15"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="11"/>
       <c r="E23" s="18"/>
       <c r="F23" s="11"/>
       <c r="G23" s="18"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="47"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="51"/>
       <c r="L23" s="17"/>
       <c r="M23" s="12"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
+      <c r="A24" s="56">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -2291,7 +2361,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="7"/>
       <c r="C25" s="21"/>
       <c r="D25" s="8"/>
@@ -2367,34 +2437,34 @@
       <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="67"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
+      <c r="A2" s="56">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="13"/>
@@ -2412,7 +2482,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
@@ -2428,11 +2498,11 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="A4" s="56">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
       <c r="F4" s="16"/>
@@ -2446,9 +2516,9 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
       <c r="F5" s="17"/>
@@ -2462,11 +2532,11 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="56">
         <v>0.75</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -2480,9 +2550,9 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="67"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -2496,11 +2566,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="56">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
       <c r="F8" s="16"/>
@@ -2514,9 +2584,9 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="17"/>
@@ -2530,11 +2600,11 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="A10" s="56">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="16"/>
@@ -2548,17 +2618,17 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="69"/>
+      <c r="I11" s="74"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="17"/>
@@ -2566,17 +2636,17 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="56">
         <v>0.875</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="16"/>
@@ -2584,9 +2654,9 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
       <c r="F13" s="17"/>
@@ -2600,7 +2670,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14" s="56">
         <v>0.91666666666666663</v>
       </c>
       <c r="B14" s="14"/>
@@ -2618,7 +2688,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="22"/>
@@ -2698,40 +2768,40 @@
       <c r="A1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="67"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="65">
         <v>0.375</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="97"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="20"/>
       <c r="E2" s="4"/>
       <c r="F2" s="20"/>
@@ -2740,14 +2810,14 @@
       <c r="I2" s="23"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
       <c r="D3" s="24"/>
       <c r="E3" s="1"/>
       <c r="F3" s="17"/>
@@ -2756,52 +2826,52 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="105"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="110"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="65">
         <v>0.41666666666666669</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="38"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="16"/>
       <c r="G4" s="19"/>
       <c r="H4" s="14"/>
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="106"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="111"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="101" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
       <c r="H5" s="11"/>
       <c r="I5" s="18"/>
       <c r="J5" s="43"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="105"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="110"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61">
+      <c r="A6" s="65">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="71"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -2810,14 +2880,14 @@
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="68" t="s">
+      <c r="L6" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="75"/>
+      <c r="M6" s="77"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="24"/>
@@ -2828,84 +2898,84 @@
       <c r="I7" s="25"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="76"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="79"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61">
+      <c r="A8" s="65">
         <v>0.5</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="68" t="s">
+      <c r="B8" s="99"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="75"/>
+      <c r="M8" s="77"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="76"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
+      <c r="A10" s="65">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="68" t="s">
+      <c r="B10" s="99"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="75"/>
+      <c r="M10" s="77"/>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="76"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="92">
+      <c r="A12" s="97">
         <v>0.58333333333333304</v>
       </c>
       <c r="B12" s="5"/>
@@ -2923,7 +2993,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -2939,7 +3009,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61">
+      <c r="A14" s="65">
         <v>0.625</v>
       </c>
       <c r="B14" s="13"/>
@@ -2952,14 +3022,14 @@
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="81" t="s">
+      <c r="L14" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="49"/>
+      <c r="M14" s="53"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -2970,12 +3040,12 @@
       <c r="I15" s="11"/>
       <c r="J15" s="17"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="83"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="86"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61">
+      <c r="A16" s="65">
         <v>0.66666666666666596</v>
       </c>
       <c r="B16" s="13"/>
@@ -2988,18 +3058,18 @@
       <c r="I16" s="14"/>
       <c r="J16" s="16"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="55"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="72"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="11"/>
@@ -3011,13 +3081,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61">
+      <c r="A18" s="65">
         <v>0.70833333333333304</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="91"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -3029,19 +3099,19 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="72"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="72"/>
+      <c r="I19" s="90"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="17"/>
@@ -3049,17 +3119,17 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92">
+      <c r="A20" s="97">
         <v>0.75</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="91"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="91"/>
       <c r="J20" s="16"/>
       <c r="K20" s="14"/>
       <c r="L20" s="16"/>
@@ -3067,17 +3137,17 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="69"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="24"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="17"/>
@@ -3085,17 +3155,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="61">
+      <c r="A22" s="65">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="14"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="16"/>
@@ -3103,19 +3173,19 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="68" t="s">
+      <c r="A23" s="64"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="69"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="11"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="72"/>
+      <c r="I23" s="90"/>
       <c r="J23" s="17"/>
       <c r="K23" s="11"/>
       <c r="L23" s="17"/>
@@ -3123,70 +3193,70 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="61">
+      <c r="A24" s="65">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="16"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="91"/>
       <c r="J24" s="16"/>
       <c r="K24" s="14"/>
       <c r="L24" s="16"/>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="48" t="s">
+      <c r="A25" s="64"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="48" t="s">
+      <c r="H25" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="45"/>
+      <c r="I25" s="49"/>
       <c r="J25" s="17"/>
       <c r="K25" s="11"/>
       <c r="L25" s="17"/>
       <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="92">
+      <c r="A26" s="97">
         <v>0.875</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="88"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="93"/>
       <c r="F26" s="16"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="88"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="93"/>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="41"/>
       <c r="C27" s="40"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="91"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="22"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="91"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="22"/>
@@ -3203,6 +3273,7 @@
     <mergeCell ref="L4:M5"/>
     <mergeCell ref="J8:K9"/>
     <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
@@ -3225,8 +3296,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="B10:C11"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F10:G11"/>
     <mergeCell ref="H8:I9"/>
     <mergeCell ref="H10:I11"/>
     <mergeCell ref="B22:C23"/>
@@ -3243,6 +3312,7 @@
     <mergeCell ref="J10:K11"/>
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="L14:M16"/>
+    <mergeCell ref="F10:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.78125" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3259,14 +3329,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
-      <selection activeCell="B6" sqref="B6:C7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3281,249 +3351,235 @@
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="137"/>
+      <c r="D1" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="137"/>
+      <c r="F1" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="137"/>
+      <c r="H1" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="137"/>
+      <c r="J1" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="137"/>
+      <c r="L1" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="137"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="48" t="s">
+      <c r="A2" s="56">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="15"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="141"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="140"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="12"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
-        <v>0.625</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="134">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="14"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="143"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="16"/>
       <c r="M4" s="15"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="135"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="17"/>
       <c r="I5" s="11"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="17"/>
       <c r="M5" s="12"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="14"/>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="134">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="14"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="16"/>
       <c r="M6" s="15"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="11"/>
+    <row r="7" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="135"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
       <c r="L7" s="17"/>
       <c r="M7" s="12"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="134">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+    <row r="9" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="135"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="111">
-        <v>0.75</v>
-      </c>
-      <c r="B10" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="14"/>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="134">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="14"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="16"/>
       <c r="M10" s="15"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="47"/>
+    <row r="11" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="135"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="17"/>
       <c r="M11" s="12"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
-        <v>0.79166666666666596</v>
-      </c>
-      <c r="B12" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="14"/>
+      <c r="A12" s="56">
+        <v>0.625</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="16"/>
       <c r="K12" s="14"/>
       <c r="L12" s="16"/>
       <c r="M12" s="15"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="11"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="11"/>
       <c r="J13" s="17"/>
       <c r="K13" s="11"/>
@@ -3531,16 +3587,20 @@
       <c r="M13" s="12"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="49"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="19"/>
+      <c r="F14" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="49"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
@@ -3549,65 +3609,214 @@
       <c r="M14" s="15"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="9"/>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="116">
+        <v>0.75</v>
+      </c>
+      <c r="B18" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="113"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="B20" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="113"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="56">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="58"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-      <c r="J17" s="28" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+      <c r="J25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="F12:G13"/>
+  <mergeCells count="25">
+    <mergeCell ref="F20:G21"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B20:C22"/>
     <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H2:I4"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3651,34 +3860,34 @@
       <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="67"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
+      <c r="A2" s="56">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="14"/>
@@ -3696,17 +3905,17 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
       <c r="E3" s="11"/>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="69"/>
+      <c r="I3" s="74"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
       <c r="L3" s="17"/>
@@ -3714,7 +3923,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="A4" s="56">
         <v>0.70833333333333304</v>
       </c>
       <c r="B4" s="14"/>
@@ -3723,8 +3932,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="16"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="16"/>
@@ -3732,17 +3941,17 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="17"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="69"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="17"/>
@@ -3750,7 +3959,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="128">
+      <c r="A6" s="132">
         <v>0.75</v>
       </c>
       <c r="B6" s="1"/>
@@ -3759,8 +3968,8 @@
       <c r="E6" s="14"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
@@ -3768,17 +3977,17 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="128"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="1"/>
       <c r="C7" s="25"/>
       <c r="D7" s="1"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="69"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="24"/>
@@ -3786,39 +3995,39 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119">
+      <c r="A8" s="123">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="115"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="119"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="117"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="121"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="121"/>
+      <c r="A10" s="125"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3833,37 +4042,37 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
+      <c r="A12" s="125"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3934,34 +4143,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="62" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62" t="s">
+      <c r="K1" s="67"/>
+      <c r="L1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="63"/>
+      <c r="M1" s="67"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+      <c r="A2" s="63">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -3979,7 +4188,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -3990,14 +4199,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="65">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -4010,12 +4219,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -4031,7 +4240,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="56">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -4049,11 +4258,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -4067,11 +4276,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="56">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -4085,7 +4294,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="10"/>
       <c r="C9" s="42"/>
       <c r="D9" s="11"/>
@@ -4101,7 +4310,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="A10" s="56">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -4119,7 +4328,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -4135,7 +4344,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="56">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -4153,7 +4362,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -4169,7 +4378,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14" s="56">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -4187,7 +4396,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -4203,7 +4412,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
+      <c r="A16" s="56">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -4221,7 +4430,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -4237,13 +4446,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="A18" s="56">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -4255,11 +4464,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -4271,7 +4480,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
+      <c r="A20" s="56">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -4289,7 +4498,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -4305,7 +4514,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
+      <c r="A22" s="56">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -4323,7 +4532,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -4339,7 +4548,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
+      <c r="A24" s="56">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -4357,7 +4566,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -4373,7 +4582,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="A26" s="56">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -4391,7 +4600,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>

--- a/images/stundenplaene/Stundenpläne_aktuell.xlsx
+++ b/images/stundenplaene/Stundenpläne_aktuell.xlsx
@@ -6,7 +6,7 @@
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="15180" windowHeight="8580" activeTab="2"/>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="6"/>
-    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12315" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12315" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Wetzikon" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -721,11 +721,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -774,10 +789,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -800,6 +811,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -854,15 +878,21 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -875,18 +905,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -897,7 +915,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -908,6 +926,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -917,80 +989,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -998,20 +1001,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1052,39 +1076,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1405,34 +1425,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="66" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="66" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="66" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="67"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63">
+      <c r="A2" s="66">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -1450,7 +1470,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1461,14 +1481,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
+      <c r="A4" s="68">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -1481,12 +1501,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -1502,7 +1522,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="59">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -1520,11 +1540,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -1538,11 +1558,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="59">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -1556,9 +1576,9 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="42"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="11"/>
       <c r="E9" s="18"/>
       <c r="F9" s="17"/>
@@ -1572,7 +1592,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="A10" s="59">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -1590,7 +1610,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -1606,7 +1626,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="59">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -1624,7 +1644,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -1640,7 +1660,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="59">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -1658,7 +1678,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -1674,7 +1694,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="A16" s="59">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -1692,7 +1712,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -1708,13 +1728,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+      <c r="A18" s="59">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -1726,11 +1746,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -1742,7 +1762,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="59">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -1760,7 +1780,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -1776,7 +1796,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+      <c r="A22" s="59">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -1794,7 +1814,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -1810,7 +1830,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56">
+      <c r="A24" s="59">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -1828,7 +1848,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -1844,7 +1864,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56">
+      <c r="A26" s="59">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -1862,7 +1882,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -1879,12 +1899,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="L3:M4"/>
     <mergeCell ref="A24:A25"/>
@@ -1901,6 +1915,12 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1936,34 +1956,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="66" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="66" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="66" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="67"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63">
+      <c r="A2" s="66">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -1981,7 +2001,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -1997,7 +2017,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
+      <c r="A4" s="68">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -2015,7 +2035,7 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -2031,7 +2051,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="59">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -2049,7 +2069,7 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="17"/>
@@ -2065,7 +2085,7 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="59">
         <v>0.45833333333333331</v>
       </c>
       <c r="B8" s="13"/>
@@ -2083,7 +2103,7 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="5"/>
       <c r="C9" s="18"/>
       <c r="D9" s="11"/>
@@ -2099,7 +2119,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="A10" s="59">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -2117,7 +2137,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -2133,7 +2153,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="59">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -2151,7 +2171,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -2167,7 +2187,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="59">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -2185,7 +2205,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -2201,7 +2221,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="A16" s="59">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -2219,7 +2239,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -2235,13 +2255,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+      <c r="A18" s="59">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -2253,11 +2273,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -2269,7 +2289,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="59">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -2280,16 +2300,16 @@
       <c r="G20" s="25"/>
       <c r="H20" s="24"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="52" t="s">
+      <c r="J20" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="49"/>
+      <c r="K20" s="52"/>
       <c r="L20" s="16"/>
       <c r="M20" s="15"/>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -2298,52 +2318,52 @@
       <c r="G21" s="1"/>
       <c r="H21" s="24"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="51"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="54"/>
       <c r="L21" s="17"/>
       <c r="M21" s="12"/>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+      <c r="A22" s="59">
         <v>0.75</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="14"/>
       <c r="E22" s="19"/>
       <c r="F22" s="14"/>
       <c r="G22" s="19"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="52" t="s">
+      <c r="J22" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="49"/>
+      <c r="K22" s="52"/>
       <c r="L22" s="16"/>
       <c r="M22" s="15"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="11"/>
       <c r="E23" s="18"/>
       <c r="F23" s="11"/>
       <c r="G23" s="18"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="51"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="17"/>
       <c r="M23" s="12"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56">
+      <c r="A24" s="59">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -2361,7 +2381,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="7"/>
       <c r="C25" s="21"/>
       <c r="D25" s="8"/>
@@ -2378,28 +2398,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="J22:K23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.72916666666666663" top="1.75" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2437,34 +2457,34 @@
       <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="66" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="66" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="66" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="67"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
+      <c r="A2" s="59">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="13"/>
@@ -2482,7 +2502,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="17"/>
@@ -2498,11 +2518,11 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="59">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
       <c r="F4" s="16"/>
@@ -2516,9 +2536,9 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
       <c r="F5" s="17"/>
@@ -2532,11 +2552,11 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="59">
         <v>0.75</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="16"/>
@@ -2550,9 +2570,9 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -2566,11 +2586,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="59">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="14"/>
       <c r="E8" s="1"/>
       <c r="F8" s="16"/>
@@ -2584,9 +2604,9 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="17"/>
@@ -2600,11 +2620,11 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="A10" s="59">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="16"/>
@@ -2618,17 +2638,17 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="11"/>
       <c r="E11" s="18"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="71"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="17"/>
@@ -2636,17 +2656,17 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="59">
         <v>0.875</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="14"/>
       <c r="E12" s="19"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="76"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="16"/>
@@ -2654,9 +2674,9 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="11"/>
       <c r="E13" s="18"/>
       <c r="F13" s="17"/>
@@ -2670,7 +2690,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="59">
         <v>0.91666666666666663</v>
       </c>
       <c r="B14" s="14"/>
@@ -2688,7 +2708,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="22"/>
@@ -2705,6 +2725,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
     <mergeCell ref="H11:I12"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -2713,17 +2744,6 @@
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2739,14 +2759,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView showGridLines="0" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2765,562 +2785,593 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="66" t="s">
+      <c r="G1" s="107"/>
+      <c r="H1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="66" t="s">
+      <c r="I1" s="107"/>
+      <c r="J1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="66" t="s">
+      <c r="K1" s="107"/>
+      <c r="L1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="67"/>
+      <c r="M1" s="107"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="65">
-        <v>0.375</v>
-      </c>
-      <c r="B2" s="101" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="102"/>
+      <c r="A2" s="89">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="20"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="23"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="1"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="91"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="17"/>
       <c r="G3" s="11"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
+      <c r="L3" s="17"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89">
+        <v>0.375</v>
+      </c>
+      <c r="B4" s="142"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="68">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="106" t="s">
+      <c r="B6" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65">
+      <c r="C6" s="91"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="68">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="73" t="s">
+      <c r="B8" s="144"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="77"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65">
+      <c r="M8" s="78"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="67"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="68">
         <v>0.5</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="73" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="77"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65">
+      <c r="M10" s="78"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="68">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="73" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="77"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97">
+      <c r="M12" s="78"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65">
-        <v>0.625</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="53"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="6"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="17"/>
       <c r="G15" s="11"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="86"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="6"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65">
-        <v>0.66666666666666596</v>
+      <c r="A16" s="68">
+        <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="16"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="14"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="14"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="55"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="56"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="90"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="105"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65">
-        <v>0.70833333333333304</v>
+      <c r="A18" s="68">
+        <v>0.66666666666666596</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="6"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="58"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="90"/>
+      <c r="D19" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="91"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="90"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="18"/>
       <c r="L19" s="17"/>
-      <c r="M19" s="6"/>
+      <c r="M19" s="12"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="97">
-        <v>0.75</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="91"/>
+      <c r="A20" s="68">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="16"/>
       <c r="K20" s="14"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="15"/>
+      <c r="M20" s="6"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="91"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="91"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="17"/>
-      <c r="M21" s="12"/>
+      <c r="M21" s="6"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="65">
-        <v>0.79166666666666596</v>
-      </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="14"/>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="89">
+        <v>0.75</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="16"/>
       <c r="K22" s="14"/>
       <c r="L22" s="16"/>
       <c r="M22" s="15"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="90"/>
-      <c r="J23" s="17"/>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="71"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="17"/>
       <c r="M23" s="12"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="65">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="68">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="B24" s="74"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="16"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="16"/>
       <c r="M24" s="15"/>
+      <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="71"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="49"/>
+      <c r="H25" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="91"/>
       <c r="J25" s="17"/>
       <c r="K25" s="11"/>
       <c r="L25" s="17"/>
       <c r="M25" s="12"/>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="97">
-        <v>0.875</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="93"/>
+      <c r="A26" s="68">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="16"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="93"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="92"/>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="98"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="9"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="67"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="52"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="89">
+        <v>0.875</v>
+      </c>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="90"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
+  <mergeCells count="50">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="L16:M18"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="H25:I26"/>
+    <mergeCell ref="B26:C28"/>
+    <mergeCell ref="H27:I29"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D27:E29"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B12:C13"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="H25:I27"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E27"/>
-    <mergeCell ref="D17:E18"/>
     <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="L6:M7"/>
     <mergeCell ref="J10:K11"/>
     <mergeCell ref="D10:E11"/>
-    <mergeCell ref="L14:M16"/>
     <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="1.78125" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="1.5104166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L                    
-&amp;G&amp;C&amp;"-,Fett"&amp;9
-&amp;18
-                                                          Stundenplan                                              Rüti&amp;R
+    <oddHeader xml:space="preserve">&amp;L                    &amp;G&amp;C&amp;"-,Fett"&amp;9
+&amp;18                                                          Stundenplan                                              Rüti&amp;R
 Joweidzentrum 4, 8630 Rüti </oddHeader>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
@@ -3335,7 +3386,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="2">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -3351,64 +3402,64 @@
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="136" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="136" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="137"/>
-      <c r="H1" s="136" t="s">
+      <c r="G1" s="107"/>
+      <c r="H1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="137"/>
-      <c r="J1" s="136" t="s">
+      <c r="I1" s="107"/>
+      <c r="J1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="137"/>
-      <c r="L1" s="136" t="s">
+      <c r="K1" s="107"/>
+      <c r="L1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="137"/>
+      <c r="M1" s="107"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
+      <c r="A2" s="59">
         <v>0.41666666666666669</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="20"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="138" t="s">
+      <c r="F2" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="139"/>
-      <c r="H2" s="138" t="s">
+      <c r="G2" s="115"/>
+      <c r="H2" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="141"/>
+      <c r="I2" s="116"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="20"/>
-      <c r="M2" s="140"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="24"/>
       <c r="E3" s="25"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="142"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="117"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="24"/>
@@ -3416,17 +3467,17 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="134">
+      <c r="A4" s="46">
         <v>0.45833333333333331</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="143"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="118"/>
       <c r="J4" s="16"/>
       <c r="K4" s="19"/>
       <c r="L4" s="16"/>
@@ -3434,13 +3485,13 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="17"/>
       <c r="I5" s="11"/>
       <c r="J5" s="17"/>
@@ -3450,15 +3501,15 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="134">
+      <c r="A6" s="46">
         <v>0.5</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="16"/>
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
@@ -3468,13 +3519,13 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="17"/>
       <c r="I7" s="11"/>
       <c r="J7" s="17"/>
@@ -3484,15 +3535,15 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="134">
+      <c r="A8" s="46">
         <v>0.54166666666666663</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="16"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="16"/>
       <c r="I8" s="14"/>
       <c r="J8" s="16"/>
@@ -3502,13 +3553,13 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="17"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="17"/>
       <c r="I9" s="11"/>
       <c r="J9" s="17"/>
@@ -3518,15 +3569,15 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="134">
+      <c r="A10" s="46">
         <v>0.58333333333333337</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="16"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="16"/>
       <c r="I10" s="14"/>
       <c r="J10" s="16"/>
@@ -3536,13 +3587,13 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="135"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="17"/>
       <c r="I11" s="11"/>
       <c r="J11" s="17"/>
@@ -3552,17 +3603,17 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="59">
         <v>0.625</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="16"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="49"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="16"/>
       <c r="I12" s="14"/>
       <c r="J12" s="16"/>
@@ -3572,13 +3623,13 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="17"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="51"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="17"/>
       <c r="I13" s="11"/>
       <c r="J13" s="17"/>
@@ -3588,19 +3639,19 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="59">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="16"/>
@@ -3610,13 +3661,13 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="51"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="54"/>
       <c r="H15" s="17"/>
       <c r="I15" s="18"/>
       <c r="J15" s="11"/>
@@ -3626,19 +3677,19 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="A16" s="59">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="14"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="49"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="1"/>
       <c r="I16" s="19"/>
       <c r="J16" s="1"/>
@@ -3648,13 +3699,13 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="51"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="17"/>
@@ -3664,19 +3715,19 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="116">
+      <c r="A18" s="120">
         <v>0.75</v>
       </c>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="113"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="49"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="16"/>
@@ -3686,13 +3737,13 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="11"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="51"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
       <c r="J19" s="11"/>
@@ -3702,19 +3753,19 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="59">
         <v>0.79166666666666596</v>
       </c>
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="113"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="14"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="49"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="14"/>
       <c r="I20" s="19"/>
       <c r="J20" s="14"/>
@@ -3724,13 +3775,13 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="118"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="11"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="51"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="17"/>
@@ -3740,11 +3791,11 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+      <c r="A22" s="59">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="16"/>
@@ -3758,7 +3809,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="7"/>
       <c r="C23" s="21"/>
       <c r="D23" s="8"/>
@@ -3792,6 +3843,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="F20:G21"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
@@ -3806,17 +3868,6 @@
     <mergeCell ref="F16:G17"/>
     <mergeCell ref="F18:G19"/>
     <mergeCell ref="H2:I4"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8854166666666667" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3860,34 +3911,34 @@
       <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="66" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="66" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="66" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="67"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
+      <c r="A2" s="59">
         <v>0.66666666666666663</v>
       </c>
       <c r="B2" s="14"/>
@@ -3905,17 +3956,17 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
       <c r="E3" s="11"/>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="74"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="17"/>
       <c r="K3" s="11"/>
       <c r="L3" s="17"/>
@@ -3923,7 +3974,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="59">
         <v>0.70833333333333304</v>
       </c>
       <c r="B4" s="14"/>
@@ -3932,8 +3983,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="16"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="16"/>
@@ -3941,17 +3992,17 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="17"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="17"/>
@@ -3959,7 +4010,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132">
+      <c r="A6" s="119">
         <v>0.75</v>
       </c>
       <c r="B6" s="1"/>
@@ -3968,8 +4019,8 @@
       <c r="E6" s="14"/>
       <c r="F6" s="24"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
       <c r="L6" s="16"/>
@@ -3977,17 +4028,17 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="132"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="1"/>
       <c r="C7" s="25"/>
       <c r="D7" s="1"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="24"/>
@@ -3995,39 +4046,39 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123">
+      <c r="A8" s="126">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="119"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="122"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="124"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="121"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="124"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4042,37 +4093,37 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4088,17 +4139,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I6"/>
     <mergeCell ref="L8:M9"/>
     <mergeCell ref="J8:K9"/>
     <mergeCell ref="A8:A9"/>
@@ -4110,6 +4150,17 @@
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1.8020833333333333" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4143,34 +4194,34 @@
       <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="66" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="67"/>
-      <c r="J1" s="66" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="66" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="67"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63">
+      <c r="A2" s="66">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="3"/>
@@ -4188,7 +4239,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="17"/>
@@ -4199,14 +4250,14 @@
       <c r="I3" s="11"/>
       <c r="J3" s="17"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
+      <c r="A4" s="68">
         <v>0.375</v>
       </c>
       <c r="B4" s="13"/>
@@ -4219,12 +4270,12 @@
       <c r="I4" s="19"/>
       <c r="J4" s="14"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="10"/>
       <c r="C5" s="18"/>
       <c r="D5" s="11"/>
@@ -4240,7 +4291,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="59">
         <v>0.41666666666666669</v>
       </c>
       <c r="B6" s="13"/>
@@ -4258,11 +4309,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="17"/>
       <c r="E7" s="11"/>
       <c r="F7" s="17"/>
@@ -4276,11 +4327,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="59">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="16"/>
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
@@ -4294,9 +4345,9 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="42"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="11"/>
       <c r="E9" s="18"/>
       <c r="F9" s="17"/>
@@ -4310,7 +4361,7 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="A10" s="59">
         <v>0.5</v>
       </c>
       <c r="B10" s="13"/>
@@ -4328,7 +4379,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="17"/>
@@ -4344,7 +4395,7 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="59">
         <v>0.54166666666666663</v>
       </c>
       <c r="B12" s="13"/>
@@ -4362,7 +4413,7 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="5"/>
       <c r="C13" s="1"/>
       <c r="D13" s="17"/>
@@ -4378,7 +4429,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="59">
         <v>0.58333333333333337</v>
       </c>
       <c r="B14" s="13"/>
@@ -4396,7 +4447,7 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="17"/>
@@ -4412,7 +4463,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="A16" s="59">
         <v>0.625</v>
       </c>
       <c r="B16" s="13"/>
@@ -4430,7 +4481,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
       <c r="D17" s="17"/>
@@ -4446,13 +4497,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+      <c r="A18" s="59">
         <v>0.66666666666666663</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="16"/>
@@ -4464,11 +4515,11 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="10"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
       <c r="H19" s="17"/>
@@ -4480,7 +4531,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="59">
         <v>0.70833333333333337</v>
       </c>
       <c r="B20" s="5"/>
@@ -4498,7 +4549,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="10"/>
       <c r="C21" s="18"/>
       <c r="D21" s="11"/>
@@ -4514,7 +4565,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+      <c r="A22" s="59">
         <v>0.75</v>
       </c>
       <c r="B22" s="13"/>
@@ -4532,7 +4583,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="10"/>
       <c r="C23" s="18"/>
       <c r="D23" s="11"/>
@@ -4548,7 +4599,7 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56">
+      <c r="A24" s="59">
         <v>0.79166666666666663</v>
       </c>
       <c r="B24" s="13"/>
@@ -4566,7 +4617,7 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="10"/>
       <c r="C25" s="18"/>
       <c r="D25" s="11"/>
@@ -4582,7 +4633,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="56">
+      <c r="A26" s="59">
         <v>0.83333333333333337</v>
       </c>
       <c r="B26" s="5"/>
@@ -4600,7 +4651,7 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="7"/>
       <c r="C27" s="21"/>
       <c r="D27" s="8"/>
@@ -4617,6 +4668,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
@@ -4626,19 +4690,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
